--- a/portfolio_results/Portfolio_Evaluation_LSTM_vs_BuyHold.xlsx
+++ b/portfolio_results/Portfolio_Evaluation_LSTM_vs_BuyHold.xlsx
@@ -13681,7 +13681,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-25 11:19:27</t>
+          <t>2025-11-25 11:27:05</t>
         </is>
       </c>
     </row>

--- a/portfolio_results/Portfolio_Evaluation_LSTM_vs_BuyHold.xlsx
+++ b/portfolio_results/Portfolio_Evaluation_LSTM_vs_BuyHold.xlsx
@@ -557,19 +557,19 @@
         <v>0.008666645257630945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007666645257630945</v>
+        <v>-0.001333354742369055</v>
       </c>
       <c r="E4" t="n">
         <v>0.004759151491247282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01157026510413761</v>
+        <v>0.002535399825243978</v>
       </c>
       <c r="G4" t="n">
         <v>100475.9151491247</v>
       </c>
       <c r="H4" t="n">
-        <v>101157.0265104138</v>
+        <v>100253.5399825244</v>
       </c>
     </row>
     <row r="5">
@@ -589,13 +589,13 @@
         <v>0.004759151491247282</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01157026510413761</v>
+        <v>0.002535399825243978</v>
       </c>
       <c r="G5" t="n">
         <v>100475.9151491247</v>
       </c>
       <c r="H5" t="n">
-        <v>101157.0265104138</v>
+        <v>100253.5399825244</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>0.004759151491247282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01157026510413761</v>
+        <v>0.002535399825243978</v>
       </c>
       <c r="G6" t="n">
         <v>100475.9151491247</v>
       </c>
       <c r="H6" t="n">
-        <v>101157.0265104138</v>
+        <v>100253.5399825244</v>
       </c>
     </row>
     <row r="7">
@@ -641,13 +641,13 @@
         <v>0.01195347688860604</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01881335976881471</v>
+        <v>0.009713802607651312</v>
       </c>
       <c r="G7" t="n">
         <v>101195.3476888606</v>
       </c>
       <c r="H7" t="n">
-        <v>101881.3359768815</v>
+        <v>100971.3802607651</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>-0.00678120880707167</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.00678120880707167</v>
+        <v>-0.005</v>
       </c>
       <c r="E8" t="n">
         <v>0.005091209058782242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01190457364078812</v>
+        <v>0.004665233594613127</v>
       </c>
       <c r="G8" t="n">
         <v>100509.1209058782</v>
       </c>
       <c r="H8" t="n">
-        <v>101190.4573640788</v>
+        <v>100466.5233594613</v>
       </c>
     </row>
     <row r="9">
@@ -687,19 +687,19 @@
         <v>0.01090197013195038</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01090197013195038</v>
+        <v>0.005901970131950378</v>
       </c>
       <c r="E9" t="n">
         <v>0.01604868339982701</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02293632707900395</v>
+        <v>0.01059473779589748</v>
       </c>
       <c r="G9" t="n">
         <v>101604.8683399827</v>
       </c>
       <c r="H9" t="n">
-        <v>102293.6327079004</v>
+        <v>101059.4737795898</v>
       </c>
     </row>
     <row r="10">
@@ -719,13 +719,13 @@
         <v>0.01604868339982701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02293632707900395</v>
+        <v>0.01059473779589748</v>
       </c>
       <c r="G10" t="n">
         <v>101604.8683399827</v>
       </c>
       <c r="H10" t="n">
-        <v>102293.6327079004</v>
+        <v>101059.4737795898</v>
       </c>
     </row>
     <row r="11">
@@ -745,13 +745,13 @@
         <v>0.0293303054810512</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03630798331102381</v>
+        <v>0.02380506679289618</v>
       </c>
       <c r="G11" t="n">
         <v>102933.0305481051</v>
       </c>
       <c r="H11" t="n">
-        <v>103630.7983311024</v>
+        <v>102380.5066792896</v>
       </c>
     </row>
     <row r="12">
@@ -771,13 +771,13 @@
         <v>0.0293303054810512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03630798331102381</v>
+        <v>0.02380506679289618</v>
       </c>
       <c r="G12" t="n">
         <v>102933.0305481051</v>
       </c>
       <c r="H12" t="n">
-        <v>103630.7983311024</v>
+        <v>102380.5066792896</v>
       </c>
     </row>
     <row r="13">
@@ -797,13 +797,13 @@
         <v>0.0293303054810512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03630798331102381</v>
+        <v>0.02380506679289618</v>
       </c>
       <c r="G13" t="n">
         <v>102933.0305481051</v>
       </c>
       <c r="H13" t="n">
-        <v>103630.7983311024</v>
+        <v>102380.5066792896</v>
       </c>
     </row>
     <row r="14">
@@ -817,19 +817,19 @@
         <v>-0.01580636453367767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01480636453367767</v>
+        <v>0.005806364533677675</v>
       </c>
       <c r="E14" t="n">
         <v>0.01306033544705598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05165193708108706</v>
+        <v>0.02974965222212189</v>
       </c>
       <c r="G14" t="n">
         <v>101306.0335447056</v>
       </c>
       <c r="H14" t="n">
-        <v>105165.1937081087</v>
+        <v>102974.9652222122</v>
       </c>
     </row>
     <row r="15">
@@ -849,13 +849,13 @@
         <v>0.004869922424614037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06015435635381894</v>
+        <v>0.0380749954088071</v>
       </c>
       <c r="G15" t="n">
         <v>100486.9922424614</v>
       </c>
       <c r="H15" t="n">
-        <v>106015.4356353819</v>
+        <v>103807.4995408807</v>
       </c>
     </row>
     <row r="16">
@@ -875,13 +875,13 @@
         <v>0.01095730418600116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05373206810624986</v>
+        <v>0.03178646128813578</v>
       </c>
       <c r="G16" t="n">
         <v>101095.7304186001</v>
       </c>
       <c r="H16" t="n">
-        <v>105373.206810625</v>
+        <v>103178.6461288136</v>
       </c>
     </row>
     <row r="17">
@@ -895,19 +895,19 @@
         <v>-0.0004378605743537989</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001437860574353799</v>
+        <v>-0.0104378605743538</v>
       </c>
       <c r="E17" t="n">
         <v>0.01051464584014306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05221694830958756</v>
+        <v>0.02101681806270439</v>
       </c>
       <c r="G17" t="n">
         <v>101051.4645840143</v>
       </c>
       <c r="H17" t="n">
-        <v>105221.6948309588</v>
+        <v>102101.6818062704</v>
       </c>
     </row>
     <row r="18">
@@ -927,13 +927,13 @@
         <v>0.01759828538165698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0595929181799697</v>
+        <v>0.02817407712347397</v>
       </c>
       <c r="G18" t="n">
         <v>101759.8285381657</v>
       </c>
       <c r="H18" t="n">
-        <v>105959.291817997</v>
+        <v>102817.4077123474</v>
       </c>
     </row>
     <row r="19">
@@ -953,13 +953,13 @@
         <v>0.01759828538165698</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0595929181799697</v>
+        <v>0.02817407712347397</v>
       </c>
       <c r="G19" t="n">
         <v>101759.8285381657</v>
       </c>
       <c r="H19" t="n">
-        <v>105959.291817997</v>
+        <v>102817.4077123474</v>
       </c>
     </row>
     <row r="20">
@@ -979,13 +979,13 @@
         <v>0.01759828538165698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0595929181799697</v>
+        <v>0.02817407712347397</v>
       </c>
       <c r="G20" t="n">
         <v>101759.8285381657</v>
       </c>
       <c r="H20" t="n">
-        <v>105959.291817997</v>
+        <v>102817.4077123474</v>
       </c>
     </row>
     <row r="21">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E21" t="n">
         <v>0.01759828538165698</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0595929181799697</v>
+        <v>0.02303320673785669</v>
       </c>
       <c r="G21" t="n">
         <v>101759.8285381657</v>
       </c>
       <c r="H21" t="n">
-        <v>105959.291817997</v>
+        <v>102303.3206737857</v>
       </c>
     </row>
     <row r="22">
@@ -1025,19 +1025,19 @@
         <v>0.0123993841233172</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0123993841233172</v>
+        <v>0.007399384123317203</v>
       </c>
       <c r="E22" t="n">
         <v>0.03021587740533316</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07273121778682978</v>
+        <v>0.03060302240541923</v>
       </c>
       <c r="G22" t="n">
         <v>103021.5877405333</v>
       </c>
       <c r="H22" t="n">
-        <v>107273.121778683</v>
+        <v>103060.3022405419</v>
       </c>
     </row>
     <row r="23">
@@ -1057,13 +1057,13 @@
         <v>0.03187608016548604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07445993442547971</v>
+        <v>0.03226384905345014</v>
       </c>
       <c r="G23" t="n">
         <v>103187.6080165486</v>
       </c>
       <c r="H23" t="n">
-        <v>107445.993442548</v>
+        <v>103226.384905345</v>
       </c>
     </row>
     <row r="24">
@@ -1083,13 +1083,13 @@
         <v>0.03829551949440813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08114429361645525</v>
+        <v>0.03868570074457134</v>
       </c>
       <c r="G24" t="n">
         <v>103829.5519494408</v>
       </c>
       <c r="H24" t="n">
-        <v>108114.4293616455</v>
+        <v>103868.5700744571</v>
       </c>
     </row>
     <row r="25">
@@ -1109,13 +1109,13 @@
         <v>0.0488102504120731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09209295044594978</v>
+        <v>0.04920438299475927</v>
       </c>
       <c r="G25" t="n">
         <v>104881.0250412073</v>
       </c>
       <c r="H25" t="n">
-        <v>109209.295044595</v>
+        <v>104920.4382994759</v>
       </c>
     </row>
     <row r="26">
@@ -1135,13 +1135,13 @@
         <v>0.0488102504120731</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09209295044594978</v>
+        <v>0.04920438299475927</v>
       </c>
       <c r="G26" t="n">
         <v>104881.0250412073</v>
       </c>
       <c r="H26" t="n">
-        <v>109209.295044595</v>
+        <v>104920.4382994759</v>
       </c>
     </row>
     <row r="27">
@@ -1161,13 +1161,13 @@
         <v>0.0488102504120731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09209295044594978</v>
+        <v>0.04920438299475927</v>
       </c>
       <c r="G27" t="n">
         <v>104881.0250412073</v>
       </c>
       <c r="H27" t="n">
-        <v>109209.295044595</v>
+        <v>104920.4382994759</v>
       </c>
     </row>
     <row r="28">
@@ -1187,13 +1187,13 @@
         <v>0.07802987003727946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1225184164393098</v>
+        <v>0.07843498306580265</v>
       </c>
       <c r="G28" t="n">
         <v>107802.9870037279</v>
       </c>
       <c r="H28" t="n">
-        <v>112251.841643931</v>
+        <v>107843.4983065803</v>
       </c>
     </row>
     <row r="29">
@@ -1213,13 +1213,13 @@
         <v>0.07681232562298446</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1212506259393753</v>
+        <v>0.07721698111028497</v>
       </c>
       <c r="G29" t="n">
         <v>107681.2325622984</v>
       </c>
       <c r="H29" t="n">
-        <v>112125.0625939375</v>
+        <v>107721.6981110285</v>
       </c>
     </row>
     <row r="30">
@@ -1239,13 +1239,13 @@
         <v>0.07913672859572918</v>
       </c>
       <c r="F30" t="n">
-        <v>0.123670953257432</v>
+        <v>0.0795422575708189</v>
       </c>
       <c r="G30" t="n">
         <v>107913.6728595729</v>
       </c>
       <c r="H30" t="n">
-        <v>112367.0953257432</v>
+        <v>107954.2257570819</v>
       </c>
     </row>
     <row r="31">
@@ -1265,13 +1265,13 @@
         <v>0.09186492139772851</v>
       </c>
       <c r="F31" t="n">
-        <v>0.136924417957571</v>
+        <v>0.09227523350255984</v>
       </c>
       <c r="G31" t="n">
         <v>109186.4921397728</v>
       </c>
       <c r="H31" t="n">
-        <v>113692.4417957571</v>
+        <v>109227.523350256</v>
       </c>
     </row>
     <row r="32">
@@ -1285,19 +1285,19 @@
         <v>-0.004966975786139138</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003966975786139138</v>
+        <v>-0.005033024213860862</v>
       </c>
       <c r="E32" t="n">
         <v>0.0864416547714113</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1414345695942791</v>
+        <v>0.08677778580414097</v>
       </c>
       <c r="G32" t="n">
         <v>108644.1654771411</v>
       </c>
       <c r="H32" t="n">
-        <v>114143.4569594279</v>
+        <v>108677.7785804141</v>
       </c>
     </row>
     <row r="33">
@@ -1317,13 +1317,13 @@
         <v>0.0864416547714113</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1414345695942791</v>
+        <v>0.08677778580414097</v>
       </c>
       <c r="G33" t="n">
         <v>108644.1654771411</v>
       </c>
       <c r="H33" t="n">
-        <v>114143.4569594279</v>
+        <v>108677.7785804141</v>
       </c>
     </row>
     <row r="34">
@@ -1343,13 +1343,13 @@
         <v>0.0864416547714113</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1414345695942791</v>
+        <v>0.08677778580414097</v>
       </c>
       <c r="G34" t="n">
         <v>108644.1654771411</v>
       </c>
       <c r="H34" t="n">
-        <v>114143.4569594279</v>
+        <v>108677.7785804141</v>
       </c>
     </row>
     <row r="35">
@@ -1363,19 +1363,19 @@
         <v>0.01405870938338394</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01305870938338394</v>
+        <v>-0.005</v>
       </c>
       <c r="E35" t="n">
         <v>0.1017156222578453</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1563402319187588</v>
+        <v>0.08134389687512034</v>
       </c>
       <c r="G35" t="n">
         <v>110171.5622257845</v>
       </c>
       <c r="H35" t="n">
-        <v>115634.0231918759</v>
+        <v>108134.389687512</v>
       </c>
     </row>
     <row r="36">
@@ -1389,19 +1389,19 @@
         <v>0.01235672282048417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01235672282048417</v>
+        <v>0.007356722820484167</v>
       </c>
       <c r="E36" t="n">
         <v>0.1153292168290827</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1706288076507532</v>
+        <v>0.08929904419805301</v>
       </c>
       <c r="G36" t="n">
         <v>111532.9216829083</v>
       </c>
       <c r="H36" t="n">
-        <v>117062.8807650753</v>
+        <v>108929.9044198053</v>
       </c>
     </row>
     <row r="37">
@@ -1421,13 +1421,13 @@
         <v>0.1340342756916675</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1902612896327081</v>
+        <v>0.1075675540095415</v>
       </c>
       <c r="G37" t="n">
         <v>113403.4275691667</v>
       </c>
       <c r="H37" t="n">
-        <v>119026.1289632708</v>
+        <v>110756.7554009541</v>
       </c>
     </row>
     <row r="38">
@@ -1447,13 +1447,13 @@
         <v>0.1383508539145786</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1947918898734009</v>
+        <v>0.1117833895327884</v>
       </c>
       <c r="G38" t="n">
         <v>113835.0853914579</v>
       </c>
       <c r="H38" t="n">
-        <v>119479.1889873401</v>
+        <v>111178.3389532788</v>
       </c>
     </row>
     <row r="39">
@@ -1467,19 +1467,19 @@
         <v>-0.01652895032645341</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01552895032645341</v>
+        <v>0.006528950326453406</v>
       </c>
       <c r="E39" t="n">
         <v>0.1195351091961487</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2133457537816943</v>
+        <v>0.1190421680568241</v>
       </c>
       <c r="G39" t="n">
         <v>111953.5109196149</v>
       </c>
       <c r="H39" t="n">
-        <v>121334.5753781694</v>
+        <v>111904.2168056824</v>
       </c>
     </row>
     <row r="40">
@@ -1499,13 +1499,13 @@
         <v>0.1195351091961487</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2133457537816943</v>
+        <v>0.1190421680568241</v>
       </c>
       <c r="G40" t="n">
         <v>111953.5109196149</v>
       </c>
       <c r="H40" t="n">
-        <v>121334.5753781694</v>
+        <v>111904.2168056824</v>
       </c>
     </row>
     <row r="41">
@@ -1525,13 +1525,13 @@
         <v>0.1195351091961487</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2133457537816943</v>
+        <v>0.1190421680568241</v>
       </c>
       <c r="G41" t="n">
         <v>111953.5109196149</v>
       </c>
       <c r="H41" t="n">
-        <v>121334.5753781694</v>
+        <v>111904.2168056824</v>
       </c>
     </row>
     <row r="42">
@@ -1545,19 +1545,19 @@
         <v>0.0174988220989436</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0164988220989436</v>
+        <v>0.0074988220989436</v>
       </c>
       <c r="E42" t="n">
         <v>0.1391256549054936</v>
       </c>
       <c r="F42" t="n">
-        <v>0.233364529517847</v>
+        <v>0.1274336661962983</v>
       </c>
       <c r="G42" t="n">
         <v>113912.5654905494</v>
       </c>
       <c r="H42" t="n">
-        <v>123336.4529517847</v>
+        <v>112743.3666196298</v>
       </c>
     </row>
     <row r="43">
@@ -1577,13 +1577,13 @@
         <v>0.1341449615475128</v>
       </c>
       <c r="F43" t="n">
-        <v>0.227971787730596</v>
+        <v>0.1225040946880052</v>
       </c>
       <c r="G43" t="n">
         <v>113414.4961547513</v>
       </c>
       <c r="H43" t="n">
-        <v>122797.1787730596</v>
+        <v>112250.4094688005</v>
       </c>
     </row>
     <row r="44">
@@ -1603,13 +1603,13 @@
         <v>0.1467625535711887</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2416332221675375</v>
+        <v>0.1349921797140619</v>
       </c>
       <c r="G44" t="n">
         <v>114676.2553571189</v>
       </c>
       <c r="H44" t="n">
-        <v>124163.3222167537</v>
+        <v>113499.2179714062</v>
       </c>
     </row>
     <row r="45">
@@ -1629,13 +1629,13 @@
         <v>0.1627005511151707</v>
       </c>
       <c r="F45" t="n">
-        <v>0.258889756385372</v>
+        <v>0.1507665896094565</v>
       </c>
       <c r="G45" t="n">
         <v>116270.0551115171</v>
       </c>
       <c r="H45" t="n">
-        <v>125888.9756385372</v>
+        <v>115076.6589609457</v>
       </c>
     </row>
     <row r="46">
@@ -1655,13 +1655,13 @@
         <v>0.1515218752174796</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2467862783539407</v>
+        <v>0.1397026516704942</v>
       </c>
       <c r="G46" t="n">
         <v>115152.187521748</v>
       </c>
       <c r="H46" t="n">
-        <v>124678.6278353941</v>
+        <v>113970.2651670494</v>
       </c>
     </row>
     <row r="47">
@@ -1675,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E47" t="n">
         <v>0.1515218752174796</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2455394920755869</v>
+        <v>0.1283056251537893</v>
       </c>
       <c r="G47" t="n">
         <v>115152.187521748</v>
       </c>
       <c r="H47" t="n">
-        <v>124553.9492075587</v>
+        <v>112830.5625153789</v>
       </c>
     </row>
     <row r="48">
@@ -1707,13 +1707,13 @@
         <v>0.1515218752174796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2455394920755869</v>
+        <v>0.1283056251537893</v>
       </c>
       <c r="G48" t="n">
         <v>115152.187521748</v>
       </c>
       <c r="H48" t="n">
-        <v>124553.9492075587</v>
+        <v>112830.5625153789</v>
       </c>
     </row>
     <row r="49">
@@ -1733,13 +1733,13 @@
         <v>0.1515218752174796</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2455394920755869</v>
+        <v>0.1283056251537893</v>
       </c>
       <c r="G49" t="n">
         <v>115152.187521748</v>
       </c>
       <c r="H49" t="n">
-        <v>124553.9492075587</v>
+        <v>112830.5625153789</v>
       </c>
     </row>
     <row r="50">
@@ -1753,19 +1753,19 @@
         <v>-0.002499081638292266</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.003499081638292267</v>
+        <v>-0.01249908163829227</v>
       </c>
       <c r="E50" t="n">
         <v>0.1486441280430317</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2411812477090973</v>
+        <v>0.1142028410320477</v>
       </c>
       <c r="G50" t="n">
         <v>114864.4128043032</v>
       </c>
       <c r="H50" t="n">
-        <v>124118.1247709097</v>
+        <v>111420.2841032048</v>
       </c>
     </row>
     <row r="51">
@@ -1779,19 +1779,19 @@
         <v>0.002119893961601838</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002119893961601838</v>
+        <v>-0.005</v>
       </c>
       <c r="E51" t="n">
         <v>0.1510791317940996</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2438124203413692</v>
+        <v>0.1086318268268875</v>
       </c>
       <c r="G51" t="n">
         <v>115107.91317941</v>
       </c>
       <c r="H51" t="n">
-        <v>124381.2420341369</v>
+        <v>110863.1826826888</v>
       </c>
     </row>
     <row r="52">
@@ -1805,19 +1805,19 @@
         <v>-0.06528848092591077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06428848092591077</v>
+        <v>0.06028848092591078</v>
       </c>
       <c r="E52" t="n">
         <v>0.07592692385374655</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3237752314018962</v>
+        <v>0.175469555572398</v>
       </c>
       <c r="G52" t="n">
         <v>107592.6923853747</v>
       </c>
       <c r="H52" t="n">
-        <v>132377.5231401896</v>
+        <v>117546.9555572398</v>
       </c>
     </row>
     <row r="53">
@@ -1837,13 +1837,13 @@
         <v>0.04903145196871961</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3568662887301581</v>
+        <v>0.2048533433396609</v>
       </c>
       <c r="G53" t="n">
         <v>104903.145196872</v>
       </c>
       <c r="H53" t="n">
-        <v>135686.6288730158</v>
+        <v>120485.3343339661</v>
       </c>
     </row>
     <row r="54">
@@ -1863,13 +1863,13 @@
         <v>0.04903145196871961</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3568662887301581</v>
+        <v>0.2048533433396609</v>
       </c>
       <c r="G54" t="n">
         <v>104903.145196872</v>
       </c>
       <c r="H54" t="n">
-        <v>135686.6288730158</v>
+        <v>120485.3343339661</v>
       </c>
     </row>
     <row r="55">
@@ -1883,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E55" t="n">
         <v>0.04903145196871961</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3555094224414279</v>
+        <v>0.1988290766229626</v>
       </c>
       <c r="G55" t="n">
         <v>104903.145196872</v>
       </c>
       <c r="H55" t="n">
-        <v>135550.9422441428</v>
+        <v>119882.9076622963</v>
       </c>
     </row>
     <row r="56">
@@ -1909,19 +1909,19 @@
         <v>-0.01171131183253349</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01171131183253349</v>
+        <v>-0.01671131183253349</v>
       </c>
       <c r="E56" t="n">
         <v>0.03674591751257861</v>
       </c>
       <c r="F56" t="n">
-        <v>0.339634628903279</v>
+        <v>0.1787950700896082</v>
       </c>
       <c r="G56" t="n">
         <v>103674.5917512579</v>
       </c>
       <c r="H56" t="n">
-        <v>133963.4628903279</v>
+        <v>117879.5070089608</v>
       </c>
     </row>
     <row r="57">
@@ -1941,13 +1941,13 @@
         <v>0.08123967477926231</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3971273829113924</v>
+        <v>0.2293851142168801</v>
       </c>
       <c r="G57" t="n">
         <v>108123.9674779262</v>
       </c>
       <c r="H57" t="n">
-        <v>139712.7382911392</v>
+        <v>122938.511421688</v>
       </c>
     </row>
     <row r="58">
@@ -1967,13 +1967,13 @@
         <v>0.06474824795605527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3758179317920687</v>
+        <v>0.2106341239216092</v>
       </c>
       <c r="G58" t="n">
         <v>106474.8247956055</v>
       </c>
       <c r="H58" t="n">
-        <v>137581.7931792069</v>
+        <v>121063.4123921609</v>
       </c>
     </row>
     <row r="59">
@@ -1993,13 +1993,13 @@
         <v>0.07127837314082219</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3842558544120831</v>
+        <v>0.2180589704966889</v>
       </c>
       <c r="G59" t="n">
         <v>107127.8373140822</v>
       </c>
       <c r="H59" t="n">
-        <v>138425.5854412083</v>
+        <v>121805.8970496689</v>
       </c>
     </row>
     <row r="60">
@@ -2019,13 +2019,13 @@
         <v>0.09142226305187062</v>
       </c>
       <c r="F60" t="n">
-        <v>0.410284847658954</v>
+        <v>0.240962864033635</v>
       </c>
       <c r="G60" t="n">
         <v>109142.2263051871</v>
       </c>
       <c r="H60" t="n">
-        <v>141028.4847658954</v>
+        <v>124096.2864033635</v>
       </c>
     </row>
     <row r="61">
@@ -2045,13 +2045,13 @@
         <v>0.09142226305187062</v>
       </c>
       <c r="F61" t="n">
-        <v>0.410284847658954</v>
+        <v>0.240962864033635</v>
       </c>
       <c r="G61" t="n">
         <v>109142.2263051871</v>
       </c>
       <c r="H61" t="n">
-        <v>141028.4847658954</v>
+        <v>124096.2864033635</v>
       </c>
     </row>
     <row r="62">
@@ -2071,13 +2071,13 @@
         <v>0.09142226305187062</v>
       </c>
       <c r="F62" t="n">
-        <v>0.410284847658954</v>
+        <v>0.240962864033635</v>
       </c>
       <c r="G62" t="n">
         <v>109142.2263051871</v>
       </c>
       <c r="H62" t="n">
-        <v>141028.4847658954</v>
+        <v>124096.2864033635</v>
       </c>
     </row>
     <row r="63">
@@ -2091,19 +2091,19 @@
         <v>-0.01034387174493911</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009343871744939114</v>
+        <v>0.0003438717449391147</v>
       </c>
       <c r="E63" t="n">
         <v>0.08013273114329089</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4234623683993104</v>
+        <v>0.2413895960990948</v>
       </c>
       <c r="G63" t="n">
         <v>108013.2731143291</v>
       </c>
       <c r="H63" t="n">
-        <v>142346.2368399311</v>
+        <v>124138.9596099095</v>
       </c>
     </row>
     <row r="64">
@@ -2123,13 +2123,13 @@
         <v>0.05113439815225274</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4616780751998657</v>
+        <v>0.2747171935705544</v>
       </c>
       <c r="G64" t="n">
         <v>105113.4398152253</v>
       </c>
       <c r="H64" t="n">
-        <v>146167.8075199866</v>
+        <v>127471.7193570554</v>
       </c>
     </row>
     <row r="65">
@@ -2149,13 +2149,13 @@
         <v>0.06231324420498741</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4461330847495104</v>
+        <v>0.2611605377397221</v>
       </c>
       <c r="G65" t="n">
         <v>106231.3244204987</v>
       </c>
       <c r="H65" t="n">
-        <v>144613.308474951</v>
+        <v>126116.0537739722</v>
       </c>
     </row>
     <row r="66">
@@ -2175,13 +2175,13 @@
         <v>0.04748202014193348</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4663229147473156</v>
+        <v>0.278767919194048</v>
       </c>
       <c r="G66" t="n">
         <v>104748.2020141933</v>
       </c>
       <c r="H66" t="n">
-        <v>146632.2914747316</v>
+        <v>127876.7919194048</v>
       </c>
     </row>
     <row r="67">
@@ -2201,13 +2201,13 @@
         <v>0.01516328163058933</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5115644615649777</v>
+        <v>0.3182226928344856</v>
       </c>
       <c r="G67" t="n">
         <v>101516.3281630589</v>
       </c>
       <c r="H67" t="n">
-        <v>151156.4461564978</v>
+        <v>131822.2692834485</v>
       </c>
     </row>
     <row r="68">
@@ -2227,13 +2227,13 @@
         <v>0.01516328163058933</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5115644615649777</v>
+        <v>0.3182226928344856</v>
       </c>
       <c r="G68" t="n">
         <v>101516.3281630589</v>
       </c>
       <c r="H68" t="n">
-        <v>151156.4461564978</v>
+        <v>131822.2692834485</v>
       </c>
     </row>
     <row r="69">
@@ -2253,13 +2253,13 @@
         <v>0.01516328163058933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5115644615649777</v>
+        <v>0.3182226928344856</v>
       </c>
       <c r="G69" t="n">
         <v>101516.3281630589</v>
       </c>
       <c r="H69" t="n">
-        <v>151156.4461564978</v>
+        <v>131822.2692834485</v>
       </c>
     </row>
     <row r="70">
@@ -2279,13 +2279,13 @@
         <v>-0.02800216028843294</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5758372235464182</v>
+        <v>0.3742744296471947</v>
       </c>
       <c r="G70" t="n">
         <v>97199.78397115671</v>
       </c>
       <c r="H70" t="n">
-        <v>157583.7223546418</v>
+        <v>137427.4429647195</v>
       </c>
     </row>
     <row r="71">
@@ -2305,13 +2305,13 @@
         <v>-0.03220813773302067</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5826561027123891</v>
+        <v>0.3802211169932128</v>
       </c>
       <c r="G71" t="n">
         <v>96779.18622669793</v>
       </c>
       <c r="H71" t="n">
-        <v>158265.6102712389</v>
+        <v>138022.1116993213</v>
       </c>
     </row>
     <row r="72">
@@ -2331,13 +2331,13 @@
         <v>-0.0570005783569929</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6231998487227683</v>
+        <v>0.4155789779395236</v>
       </c>
       <c r="G72" t="n">
         <v>94299.94216430071</v>
       </c>
       <c r="H72" t="n">
-        <v>162319.9848722768</v>
+        <v>141557.8977939523</v>
       </c>
     </row>
     <row r="73">
@@ -2357,13 +2357,13 @@
         <v>-0.06474824795605494</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6365360351853646</v>
+        <v>0.4272093543329096</v>
       </c>
       <c r="G73" t="n">
         <v>93525.1752043945</v>
       </c>
       <c r="H73" t="n">
-        <v>163653.6035185365</v>
+        <v>142720.935433291</v>
       </c>
     </row>
     <row r="74">
@@ -2377,19 +2377,19 @@
         <v>0.01005909613227995</v>
       </c>
       <c r="D74" t="n">
-        <v>0.009059096132279953</v>
+        <v>5.909613227995415e-05</v>
       </c>
       <c r="E74" t="n">
         <v>-0.0553404606743616</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6513615724520494</v>
+        <v>0.4272936968857044</v>
       </c>
       <c r="G74" t="n">
         <v>94465.95393256383</v>
       </c>
       <c r="H74" t="n">
-        <v>165136.1572452049</v>
+        <v>142729.3696885704</v>
       </c>
     </row>
     <row r="75">
@@ -2409,13 +2409,13 @@
         <v>-0.0553404606743616</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6513615724520494</v>
+        <v>0.4272936968857044</v>
       </c>
       <c r="G75" t="n">
         <v>94465.95393256383</v>
       </c>
       <c r="H75" t="n">
-        <v>165136.1572452049</v>
+        <v>142729.3696885704</v>
       </c>
     </row>
     <row r="76">
@@ -2435,13 +2435,13 @@
         <v>-0.0553404606743616</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6513615724520494</v>
+        <v>0.4272936968857044</v>
       </c>
       <c r="G76" t="n">
         <v>94465.95393256383</v>
       </c>
       <c r="H76" t="n">
-        <v>165136.1572452049</v>
+        <v>142729.3696885704</v>
       </c>
     </row>
     <row r="77">
@@ -2461,13 +2461,13 @@
         <v>-0.03198676602133066</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6921862212480852</v>
+        <v>0.4625789819959987</v>
       </c>
       <c r="G77" t="n">
         <v>96801.32339786693</v>
       </c>
       <c r="H77" t="n">
-        <v>169218.6221248085</v>
+        <v>146257.8981995999</v>
       </c>
     </row>
     <row r="78">
@@ -2487,13 +2487,13 @@
         <v>-0.05268408521160362</v>
       </c>
       <c r="F78" t="n">
-        <v>0.65600518867418</v>
+        <v>0.4313072359404868</v>
       </c>
       <c r="G78" t="n">
         <v>94731.59147883963</v>
       </c>
       <c r="H78" t="n">
-        <v>165600.518867418</v>
+        <v>143130.7235940487</v>
       </c>
     </row>
     <row r="79">
@@ -2507,19 +2507,19 @@
         <v>0.008646004962128417</v>
       </c>
       <c r="D79" t="n">
-        <v>0.008646004962128417</v>
+        <v>-0.005</v>
       </c>
       <c r="E79" t="n">
         <v>-0.04449358711163987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6703230177527675</v>
+        <v>0.4241506997607845</v>
       </c>
       <c r="G79" t="n">
         <v>95550.64128883601</v>
       </c>
       <c r="H79" t="n">
-        <v>167032.3017752767</v>
+        <v>142415.0699760784</v>
       </c>
     </row>
     <row r="80">
@@ -2533,19 +2533,19 @@
         <v>-0.006023501539354159</v>
       </c>
       <c r="D80" t="n">
-        <v>0.005023501539354159</v>
+        <v>0.001023501539354159</v>
       </c>
       <c r="E80" t="n">
         <v>-0.05024908146053564</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6787138880036674</v>
+        <v>0.425608320194262</v>
       </c>
       <c r="G80" t="n">
         <v>94975.09185394643</v>
       </c>
       <c r="H80" t="n">
-        <v>167871.3888003668</v>
+        <v>142560.8320194262</v>
       </c>
     </row>
     <row r="81">
@@ -2565,13 +2565,13 @@
         <v>-0.04575418075195892</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6707690130923707</v>
+        <v>0.418861321877642</v>
       </c>
       <c r="G81" t="n">
         <v>95424.58192480411</v>
       </c>
       <c r="H81" t="n">
-        <v>167076.9013092371</v>
+        <v>141886.1321877642</v>
       </c>
     </row>
     <row r="82">
@@ -2585,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E82" t="n">
         <v>-0.04575418075195892</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6690982440792783</v>
+        <v>0.4046727086588655</v>
       </c>
       <c r="G82" t="n">
         <v>95424.58192480411</v>
       </c>
       <c r="H82" t="n">
-        <v>166909.8244079278</v>
+        <v>140467.2708658866</v>
       </c>
     </row>
     <row r="83">
@@ -2617,13 +2617,13 @@
         <v>-0.04575418075195892</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6690982440792783</v>
+        <v>0.4046727086588655</v>
       </c>
       <c r="G83" t="n">
         <v>95424.58192480411</v>
       </c>
       <c r="H83" t="n">
-        <v>166909.8244079278</v>
+        <v>140467.2708658866</v>
       </c>
     </row>
     <row r="84">
@@ -2643,13 +2643,13 @@
         <v>-0.0289955254328188</v>
       </c>
       <c r="F84" t="n">
-        <v>0.698411280198576</v>
+        <v>0.4293418508083875</v>
       </c>
       <c r="G84" t="n">
         <v>97100.44745671812</v>
       </c>
       <c r="H84" t="n">
-        <v>169841.1280198576</v>
+        <v>142934.1850808387</v>
       </c>
     </row>
     <row r="85">
@@ -2663,19 +2663,19 @@
         <v>-0.03120350493241453</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03020350493241453</v>
+        <v>0.02120350493241453</v>
       </c>
       <c r="E85" t="n">
         <v>-0.05929426834437246</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7497092536773222</v>
+        <v>0.4596489077921098</v>
       </c>
       <c r="G85" t="n">
         <v>94070.57316556276</v>
       </c>
       <c r="H85" t="n">
-        <v>174970.9253677322</v>
+        <v>145964.890779211</v>
       </c>
     </row>
     <row r="86">
@@ -2695,13 +2695,13 @@
         <v>-0.0542999625829057</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7404198630501888</v>
+        <v>0.4518994780771715</v>
       </c>
       <c r="G86" t="n">
         <v>94570.00374170943</v>
       </c>
       <c r="H86" t="n">
-        <v>174041.9863050189</v>
+        <v>145189.9478077171</v>
       </c>
     </row>
     <row r="87">
@@ -2721,13 +2721,13 @@
         <v>-0.04963865024171343</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7318414129439064</v>
+        <v>0.4447431317859987</v>
       </c>
       <c r="G87" t="n">
         <v>95036.13497582865</v>
       </c>
       <c r="H87" t="n">
-        <v>173184.1412943906</v>
+        <v>144474.3131785999</v>
       </c>
     </row>
     <row r="88">
@@ -2741,19 +2741,19 @@
         <v>-0.005605461654742738</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.006605461654742738</v>
+        <v>-0.005</v>
       </c>
       <c r="E88" t="n">
         <v>-0.05496586434593309</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7204018008986099</v>
+        <v>0.4375194161270686</v>
       </c>
       <c r="G88" t="n">
         <v>94503.41356540669</v>
       </c>
       <c r="H88" t="n">
-        <v>172040.180089861</v>
+        <v>143751.9416127069</v>
       </c>
     </row>
     <row r="89">
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E89" t="n">
         <v>-0.05496586434593309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7204018008986099</v>
+        <v>0.4303318190464331</v>
       </c>
       <c r="G89" t="n">
         <v>94503.41356540669</v>
       </c>
       <c r="H89" t="n">
-        <v>172040.180089861</v>
+        <v>143033.1819046433</v>
       </c>
     </row>
     <row r="90">
@@ -2793,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E90" t="n">
         <v>-0.05496586434593309</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7204018008986099</v>
+        <v>0.4231801599512011</v>
       </c>
       <c r="G90" t="n">
         <v>94503.41356540669</v>
       </c>
       <c r="H90" t="n">
-        <v>172040.180089861</v>
+        <v>142318.0159951201</v>
       </c>
     </row>
     <row r="91">
@@ -2819,19 +2819,19 @@
         <v>0.03100409995824593</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03100409995824593</v>
+        <v>0.02600409995824593</v>
       </c>
       <c r="E91" t="n">
         <v>-0.02566593154015984</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7737413103020168</v>
+        <v>0.4601886790891647</v>
       </c>
       <c r="G91" t="n">
         <v>97433.40684598402</v>
       </c>
       <c r="H91" t="n">
-        <v>177374.1310302017</v>
+        <v>146018.8679089165</v>
       </c>
     </row>
     <row r="92">
@@ -2851,13 +2851,13 @@
         <v>-0.01412354923682879</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7947538161492973</v>
+        <v>0.4774867050072</v>
       </c>
       <c r="G92" t="n">
         <v>98587.64507631712</v>
       </c>
       <c r="H92" t="n">
-        <v>179475.3816149297</v>
+        <v>147748.67050072</v>
       </c>
     </row>
     <row r="93">
@@ -2877,13 +2877,13 @@
         <v>-0.003802029371142268</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8135437843578508</v>
+        <v>0.4929550817649717</v>
       </c>
       <c r="G93" t="n">
         <v>99619.79706288577</v>
       </c>
       <c r="H93" t="n">
-        <v>181354.3784357851</v>
+        <v>149295.5081764972</v>
       </c>
     </row>
     <row r="94">
@@ -2897,19 +2897,19 @@
         <v>-0.02785197095948633</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02685197095948633</v>
+        <v>0.01785197095948633</v>
       </c>
       <c r="E94" t="n">
         <v>-0.03154810631899641</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8622410093891848</v>
+        <v>0.5196072725284577</v>
       </c>
       <c r="G94" t="n">
         <v>96845.18936810036</v>
       </c>
       <c r="H94" t="n">
-        <v>186224.1009389185</v>
+        <v>151960.7272528458</v>
       </c>
     </row>
     <row r="95">
@@ -2929,13 +2929,13 @@
         <v>-0.07671891050406177</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9491001755794519</v>
+        <v>0.5904852200996913</v>
       </c>
       <c r="G95" t="n">
         <v>92328.10894959382</v>
       </c>
       <c r="H95" t="n">
-        <v>194910.0175579452</v>
+        <v>159048.5220099691</v>
       </c>
     </row>
     <row r="96">
@@ -2955,13 +2955,13 @@
         <v>-0.07671891050406177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9491001755794519</v>
+        <v>0.5904852200996913</v>
       </c>
       <c r="G96" t="n">
         <v>92328.10894959382</v>
       </c>
       <c r="H96" t="n">
-        <v>194910.0175579452</v>
+        <v>159048.5220099691</v>
       </c>
     </row>
     <row r="97">
@@ -2981,13 +2981,13 @@
         <v>-0.07671891050406177</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9491001755794519</v>
+        <v>0.5904852200996913</v>
       </c>
       <c r="G97" t="n">
         <v>92328.10894959382</v>
       </c>
       <c r="H97" t="n">
-        <v>194910.0175579452</v>
+        <v>159048.5220099691</v>
       </c>
     </row>
     <row r="98">
@@ -3001,19 +3001,19 @@
         <v>0.00769325538808463</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00669325538808463</v>
+        <v>-0.00230674461191537</v>
       </c>
       <c r="E98" t="n">
         <v>-0.06961587328758045</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9621460008315661</v>
+        <v>0.5868163768878953</v>
       </c>
       <c r="G98" t="n">
         <v>93038.41267124195</v>
       </c>
       <c r="H98" t="n">
-        <v>196214.6000831566</v>
+        <v>158681.6376887895</v>
       </c>
     </row>
     <row r="99">
@@ -3033,13 +3033,13 @@
         <v>-0.09225670338555736</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9143973205211764</v>
+        <v>0.5482013156950993</v>
       </c>
       <c r="G99" t="n">
         <v>90774.32966144427</v>
       </c>
       <c r="H99" t="n">
-        <v>191439.7320521176</v>
+        <v>154820.1315695099</v>
       </c>
     </row>
     <row r="100">
@@ -3059,13 +3059,13 @@
         <v>-0.005577767405882006</v>
       </c>
       <c r="F100" t="n">
-        <v>1.097200017499503</v>
+        <v>0.6960365497610399</v>
       </c>
       <c r="G100" t="n">
         <v>99442.2232594118</v>
       </c>
       <c r="H100" t="n">
-        <v>209720.0017499503</v>
+        <v>169603.654976104</v>
       </c>
     </row>
     <row r="101">
@@ -3085,13 +3085,13 @@
         <v>0.005631621477174331</v>
       </c>
       <c r="F101" t="n">
-        <v>1.120840207542699</v>
+        <v>0.7151547197124033</v>
       </c>
       <c r="G101" t="n">
         <v>100563.1621477174</v>
       </c>
       <c r="H101" t="n">
-        <v>212084.0207542699</v>
+        <v>171515.4719712403</v>
       </c>
     </row>
     <row r="102">
@@ -3111,13 +3111,13 @@
         <v>0.02993733359900252</v>
       </c>
       <c r="F102" t="n">
-        <v>1.172100062980828</v>
+        <v>0.7566093199570625</v>
       </c>
       <c r="G102" t="n">
         <v>102993.7333599003</v>
       </c>
       <c r="H102" t="n">
-        <v>217210.0062980829</v>
+        <v>175660.9319957063</v>
       </c>
     </row>
     <row r="103">
@@ -3137,13 +3137,13 @@
         <v>0.02993733359900252</v>
       </c>
       <c r="F103" t="n">
-        <v>1.172100062980828</v>
+        <v>0.7566093199570625</v>
       </c>
       <c r="G103" t="n">
         <v>102993.7333599003</v>
       </c>
       <c r="H103" t="n">
-        <v>217210.0062980829</v>
+        <v>175660.9319957063</v>
       </c>
     </row>
     <row r="104">
@@ -3157,19 +3157,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E104" t="n">
         <v>0.02993733359900252</v>
       </c>
       <c r="F104" t="n">
-        <v>1.169927962917848</v>
+        <v>0.7390432267574918</v>
       </c>
       <c r="G104" t="n">
         <v>102993.7333599003</v>
       </c>
       <c r="H104" t="n">
-        <v>216992.7962917848</v>
+        <v>173904.3226757492</v>
       </c>
     </row>
     <row r="105">
@@ -3189,13 +3189,13 @@
         <v>0.0513573863368566</v>
       </c>
       <c r="F105" t="n">
-        <v>1.124799031392834</v>
+        <v>0.7028755916836316</v>
       </c>
       <c r="G105" t="n">
         <v>105135.7386336857</v>
       </c>
       <c r="H105" t="n">
-        <v>212479.9031392834</v>
+        <v>170287.5591683632</v>
       </c>
     </row>
     <row r="106">
@@ -3209,19 +3209,19 @@
         <v>-0.008022810180584594</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.009022810180584595</v>
+        <v>-0.0180228101805846</v>
       </c>
       <c r="E106" t="n">
         <v>0.04292254559432052</v>
       </c>
       <c r="F106" t="n">
-        <v>1.105627373060686</v>
+        <v>0.6721849881335669</v>
       </c>
       <c r="G106" t="n">
         <v>104292.2545594321</v>
       </c>
       <c r="H106" t="n">
-        <v>210562.7373060687</v>
+        <v>167218.4988133567</v>
       </c>
     </row>
     <row r="107">
@@ -3235,19 +3235,19 @@
         <v>-0.02958388781267374</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02858388781267374</v>
+        <v>0.01958388781267374</v>
       </c>
       <c r="E107" t="n">
         <v>0.01206884200815006</v>
       </c>
       <c r="F107" t="n">
-        <v>1.165814389667548</v>
+        <v>0.7049328713432117</v>
       </c>
       <c r="G107" t="n">
         <v>101206.884200815</v>
       </c>
       <c r="H107" t="n">
-        <v>216581.4389667548</v>
+        <v>170493.2871343212</v>
       </c>
     </row>
     <row r="108">
@@ -3267,13 +3267,13 @@
         <v>0.03459864594019479</v>
       </c>
       <c r="F108" t="n">
-        <v>1.117600897139124</v>
+        <v>0.6669791257932116</v>
       </c>
       <c r="G108" t="n">
         <v>103459.8645940195</v>
       </c>
       <c r="H108" t="n">
-        <v>211760.0897139124</v>
+        <v>166697.9125793212</v>
       </c>
     </row>
     <row r="109">
@@ -3293,13 +3293,13 @@
         <v>0.03459864594019479</v>
       </c>
       <c r="F109" t="n">
-        <v>1.117600897139124</v>
+        <v>0.6669791257932116</v>
       </c>
       <c r="G109" t="n">
         <v>103459.8645940195</v>
       </c>
       <c r="H109" t="n">
-        <v>211760.0897139124</v>
+        <v>166697.9125793212</v>
       </c>
     </row>
     <row r="110">
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E110" t="n">
         <v>0.03459864594019479</v>
       </c>
       <c r="F110" t="n">
-        <v>1.115483296241985</v>
+        <v>0.6503093345352795</v>
       </c>
       <c r="G110" t="n">
         <v>103459.8645940195</v>
       </c>
       <c r="H110" t="n">
-        <v>211548.3296241985</v>
+        <v>165030.9334535279</v>
       </c>
     </row>
     <row r="111">
@@ -3345,13 +3345,13 @@
         <v>0.03459864594019479</v>
       </c>
       <c r="F111" t="n">
-        <v>1.115483296241985</v>
+        <v>0.6503093345352795</v>
       </c>
       <c r="G111" t="n">
         <v>103459.8645940195</v>
       </c>
       <c r="H111" t="n">
-        <v>211548.3296241985</v>
+        <v>165030.9334535279</v>
       </c>
     </row>
     <row r="112">
@@ -3365,19 +3365,19 @@
         <v>-0.008689085738616931</v>
       </c>
       <c r="D112" t="n">
-        <v>0.007689085738616931</v>
+        <v>-0.00131091426138307</v>
       </c>
       <c r="E112" t="n">
         <v>0.02560892960056349</v>
       </c>
       <c r="F112" t="n">
-        <v>1.131749428685401</v>
+        <v>0.6481459204929436</v>
       </c>
       <c r="G112" t="n">
         <v>102560.8929600563</v>
       </c>
       <c r="H112" t="n">
-        <v>213174.9428685401</v>
+        <v>164814.5920492944</v>
       </c>
     </row>
     <row r="113">
@@ -3391,19 +3391,19 @@
         <v>0.02640408003555028</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02540408003555028</v>
+        <v>0.01640408003555028</v>
       </c>
       <c r="E113" t="n">
         <v>0.05268918986291182</v>
       </c>
       <c r="F113" t="n">
-        <v>1.185904561787464</v>
+        <v>0.6751822380829755</v>
       </c>
       <c r="G113" t="n">
         <v>105268.9189862912</v>
       </c>
       <c r="H113" t="n">
-        <v>218590.4561787464</v>
+        <v>167518.2238082975</v>
       </c>
     </row>
     <row r="114">
@@ -3423,13 +3423,13 @@
         <v>0.05390996722303476</v>
       </c>
       <c r="F114" t="n">
-        <v>1.188439500709717</v>
+        <v>0.6771249050829073</v>
       </c>
       <c r="G114" t="n">
         <v>105390.9967223035</v>
       </c>
       <c r="H114" t="n">
-        <v>218843.9500709717</v>
+        <v>167712.4905082907</v>
       </c>
     </row>
     <row r="115">
@@ -3449,13 +3449,13 @@
         <v>0.06367661149162562</v>
       </c>
       <c r="F115" t="n">
-        <v>1.208719895403282</v>
+        <v>0.69266691801699</v>
       </c>
       <c r="G115" t="n">
         <v>106367.6611491626</v>
       </c>
       <c r="H115" t="n">
-        <v>220871.9895403282</v>
+        <v>169266.691801699</v>
       </c>
     </row>
     <row r="116">
@@ -3475,13 +3475,13 @@
         <v>0.05535271183750012</v>
       </c>
       <c r="F116" t="n">
-        <v>1.191435353678118</v>
+        <v>0.6794207965725474</v>
       </c>
       <c r="G116" t="n">
         <v>105535.27118375</v>
       </c>
       <c r="H116" t="n">
-        <v>219143.5353678118</v>
+        <v>167942.0796572547</v>
       </c>
     </row>
     <row r="117">
@@ -3495,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E117" t="n">
         <v>0.05535271183750012</v>
       </c>
       <c r="F117" t="n">
-        <v>1.18924391832444</v>
+        <v>0.6626265886068219</v>
       </c>
       <c r="G117" t="n">
         <v>105535.27118375</v>
       </c>
       <c r="H117" t="n">
-        <v>218924.391832444</v>
+        <v>166262.6588606822</v>
       </c>
     </row>
     <row r="118">
@@ -3527,13 +3527,13 @@
         <v>0.05535271183750012</v>
       </c>
       <c r="F118" t="n">
-        <v>1.18924391832444</v>
+        <v>0.6626265886068219</v>
       </c>
       <c r="G118" t="n">
         <v>105535.27118375</v>
       </c>
       <c r="H118" t="n">
-        <v>218924.391832444</v>
+        <v>166262.6588606822</v>
       </c>
     </row>
     <row r="119">
@@ -3547,19 +3547,19 @@
         <v>0.001367234625281322</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0003672346252813216</v>
+        <v>-0.008632765374718679</v>
       </c>
       <c r="E119" t="n">
         <v>0.05679562660700888</v>
       </c>
       <c r="F119" t="n">
-        <v>1.190047884494435</v>
+        <v>0.6482735233616104</v>
       </c>
       <c r="G119" t="n">
         <v>105679.5626607009</v>
       </c>
       <c r="H119" t="n">
-        <v>219004.7884494435</v>
+        <v>164827.352336161</v>
       </c>
     </row>
     <row r="120">
@@ -3579,13 +3579,13 @@
         <v>0.06589636911257246</v>
       </c>
       <c r="F120" t="n">
-        <v>1.208907786418547</v>
+        <v>0.6624678600310507</v>
       </c>
       <c r="G120" t="n">
         <v>106589.6369112572</v>
       </c>
       <c r="H120" t="n">
-        <v>220890.7786418547</v>
+        <v>166246.7860031051</v>
       </c>
     </row>
     <row r="121">
@@ -3605,13 +3605,13 @@
         <v>0.07932543053905361</v>
       </c>
       <c r="F121" t="n">
-        <v>1.236737469686859</v>
+        <v>0.6834130322437066</v>
       </c>
       <c r="G121" t="n">
         <v>107932.5430539054</v>
       </c>
       <c r="H121" t="n">
-        <v>223673.7469686859</v>
+        <v>168341.3032243707</v>
       </c>
     </row>
     <row r="122">
@@ -3631,13 +3631,13 @@
         <v>0.08110133872883729</v>
       </c>
       <c r="F122" t="n">
-        <v>1.240417768768507</v>
+        <v>0.6861828984084064</v>
       </c>
       <c r="G122" t="n">
         <v>108110.1338728837</v>
       </c>
       <c r="H122" t="n">
-        <v>224041.7768768508</v>
+        <v>168618.2898408406</v>
       </c>
     </row>
     <row r="123">
@@ -3657,13 +3657,13 @@
         <v>0.0959731447697838</v>
       </c>
       <c r="F123" t="n">
-        <v>1.271237320381488</v>
+        <v>0.7093783049039493</v>
       </c>
       <c r="G123" t="n">
         <v>109597.3144769784</v>
       </c>
       <c r="H123" t="n">
-        <v>227123.7320381488</v>
+        <v>170937.8304903949</v>
       </c>
     </row>
     <row r="124">
@@ -3683,13 +3683,13 @@
         <v>0.0959731447697838</v>
       </c>
       <c r="F124" t="n">
-        <v>1.271237320381488</v>
+        <v>0.7093783049039493</v>
       </c>
       <c r="G124" t="n">
         <v>109597.3144769784</v>
       </c>
       <c r="H124" t="n">
-        <v>227123.7320381488</v>
+        <v>170937.8304903949</v>
       </c>
     </row>
     <row r="125">
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E125" t="n">
         <v>0.0959731447697838</v>
       </c>
       <c r="F125" t="n">
-        <v>1.271237320381488</v>
+        <v>0.7008314133794296</v>
       </c>
       <c r="G125" t="n">
         <v>109597.3144769784</v>
       </c>
       <c r="H125" t="n">
-        <v>227123.7320381488</v>
+        <v>170083.1413379429</v>
       </c>
     </row>
     <row r="126">
@@ -3729,19 +3729,19 @@
         <v>0.005873520315434089</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.006873520315434089</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0.1024103653007593</v>
       </c>
       <c r="F126" t="n">
-        <v>1.255625924518673</v>
+        <v>0.7008314133794296</v>
       </c>
       <c r="G126" t="n">
         <v>110241.0365300759</v>
       </c>
       <c r="H126" t="n">
-        <v>225562.5924518673</v>
+        <v>170083.1413379429</v>
       </c>
     </row>
     <row r="127">
@@ -3755,19 +3755,19 @@
         <v>-0.007852695644818941</v>
       </c>
       <c r="D127" t="n">
-        <v>0.007852695644818941</v>
+        <v>0.002852695644818941</v>
       </c>
       <c r="E127" t="n">
         <v>0.09375347222635888</v>
       </c>
       <c r="F127" t="n">
-        <v>1.273338668392482</v>
+        <v>0.7056833677449483</v>
       </c>
       <c r="G127" t="n">
         <v>109375.3472226359</v>
       </c>
       <c r="H127" t="n">
-        <v>227333.8668392482</v>
+        <v>170568.3367744948</v>
       </c>
     </row>
     <row r="128">
@@ -3787,13 +3787,13 @@
         <v>0.09686109886467542</v>
       </c>
       <c r="F128" t="n">
-        <v>1.266879545762744</v>
+        <v>0.7008370955229746</v>
       </c>
       <c r="G128" t="n">
         <v>109686.1098864675</v>
       </c>
       <c r="H128" t="n">
-        <v>226687.9545762744</v>
+        <v>170083.7095522975</v>
       </c>
     </row>
     <row r="129">
@@ -3813,13 +3813,13 @@
         <v>0.0813232209056578</v>
       </c>
       <c r="F129" t="n">
-        <v>1.298991631574076</v>
+        <v>0.7249307562843601</v>
       </c>
       <c r="G129" t="n">
         <v>108132.3220905658</v>
       </c>
       <c r="H129" t="n">
-        <v>229899.1631574076</v>
+        <v>172493.075628436</v>
       </c>
     </row>
     <row r="130">
@@ -3839,13 +3839,13 @@
         <v>0.07603871571737542</v>
       </c>
       <c r="F130" t="n">
-        <v>1.310226970804742</v>
+        <v>0.7333606182856387</v>
       </c>
       <c r="G130" t="n">
         <v>107603.8715717375</v>
       </c>
       <c r="H130" t="n">
-        <v>231022.6970804742</v>
+        <v>173336.0618285639</v>
       </c>
     </row>
     <row r="131">
@@ -3865,13 +3865,13 @@
         <v>0.07603871571737542</v>
       </c>
       <c r="F131" t="n">
-        <v>1.310226970804742</v>
+        <v>0.7333606182856387</v>
       </c>
       <c r="G131" t="n">
         <v>107603.8715717375</v>
       </c>
       <c r="H131" t="n">
-        <v>231022.6970804742</v>
+        <v>173336.0618285639</v>
       </c>
     </row>
     <row r="132">
@@ -3885,19 +3885,19 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E132" t="n">
         <v>0.07603871571737542</v>
       </c>
       <c r="F132" t="n">
-        <v>1.307916743833937</v>
+        <v>0.7246938151942104</v>
       </c>
       <c r="G132" t="n">
         <v>107603.8715717375</v>
       </c>
       <c r="H132" t="n">
-        <v>230791.6743833937</v>
+        <v>172469.381519421</v>
       </c>
     </row>
     <row r="133">
@@ -3911,19 +3911,19 @@
         <v>0.0003100948279788351</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0003100948279788351</v>
+        <v>-0.004689905172021165</v>
       </c>
       <c r="E133" t="n">
         <v>0.07637238975782434</v>
       </c>
       <c r="F133" t="n">
-        <v>1.308632416879606</v>
+        <v>0.7166051647501781</v>
       </c>
       <c r="G133" t="n">
         <v>107637.2389757824</v>
       </c>
       <c r="H133" t="n">
-        <v>230863.2416879606</v>
+        <v>171660.5164750178</v>
       </c>
     </row>
     <row r="134">
@@ -3943,13 +3943,13 @@
         <v>0.06669337533667385</v>
       </c>
       <c r="F134" t="n">
-        <v>1.287872606735144</v>
+        <v>0.7011690143034199</v>
       </c>
       <c r="G134" t="n">
         <v>106669.3375336674</v>
       </c>
       <c r="H134" t="n">
-        <v>228787.2606735144</v>
+        <v>170116.901430342</v>
       </c>
     </row>
     <row r="135">
@@ -3963,19 +3963,19 @@
         <v>0.009908278891064493</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.01090827889106449</v>
+        <v>-0.005</v>
       </c>
       <c r="E135" t="n">
         <v>0.07726247079076054</v>
       </c>
       <c r="F135" t="n">
-        <v>1.26291585427365</v>
+        <v>0.6926631692319027</v>
       </c>
       <c r="G135" t="n">
         <v>107726.2470790761</v>
       </c>
       <c r="H135" t="n">
-        <v>226291.5854273651</v>
+        <v>169266.3169231903</v>
       </c>
     </row>
     <row r="136">
@@ -3989,19 +3989,19 @@
         <v>-0.004957144644249345</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.005957144644249345</v>
+        <v>-0.009957144644249346</v>
       </c>
       <c r="E136" t="n">
         <v>0.07192232490322925</v>
       </c>
       <c r="F136" t="n">
-        <v>1.249435337211977</v>
+        <v>0.6758090772218672</v>
       </c>
       <c r="G136" t="n">
         <v>107192.2324903229</v>
       </c>
       <c r="H136" t="n">
-        <v>224943.5337211977</v>
+        <v>167580.9077221867</v>
       </c>
     </row>
     <row r="137">
@@ -4021,13 +4021,13 @@
         <v>0.09294906425786187</v>
       </c>
       <c r="F137" t="n">
-        <v>1.293560074081252</v>
+        <v>0.7086816089867529</v>
       </c>
       <c r="G137" t="n">
         <v>109294.9064257862</v>
       </c>
       <c r="H137" t="n">
-        <v>229356.0074081252</v>
+        <v>170868.1608986753</v>
       </c>
     </row>
     <row r="138">
@@ -4047,13 +4047,13 @@
         <v>0.09294906425786187</v>
       </c>
       <c r="F138" t="n">
-        <v>1.293560074081252</v>
+        <v>0.7086816089867529</v>
       </c>
       <c r="G138" t="n">
         <v>109294.9064257862</v>
       </c>
       <c r="H138" t="n">
-        <v>229356.0074081252</v>
+        <v>170868.1608986753</v>
       </c>
     </row>
     <row r="139">
@@ -4073,13 +4073,13 @@
         <v>0.09294906425786187</v>
       </c>
       <c r="F139" t="n">
-        <v>1.293560074081252</v>
+        <v>0.7086816089867529</v>
       </c>
       <c r="G139" t="n">
         <v>109294.9064257862</v>
       </c>
       <c r="H139" t="n">
-        <v>229356.0074081252</v>
+        <v>170868.1608986753</v>
       </c>
     </row>
     <row r="140">
@@ -4093,19 +4093,19 @@
         <v>-0.001221421416621737</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0002214214166217374</v>
+        <v>-0.008778578583378263</v>
       </c>
       <c r="E140" t="n">
         <v>0.09161411286350063</v>
       </c>
       <c r="F140" t="n">
-        <v>1.294067917401962</v>
+        <v>0.6936818132082896</v>
       </c>
       <c r="G140" t="n">
         <v>109161.4112863501</v>
       </c>
       <c r="H140" t="n">
-        <v>229406.7917401962</v>
+        <v>169368.181320829</v>
       </c>
     </row>
     <row r="141">
@@ -4125,13 +4125,13 @@
         <v>0.08805404396432048</v>
       </c>
       <c r="F141" t="n">
-        <v>1.301549535447305</v>
+        <v>0.6992053987659124</v>
       </c>
       <c r="G141" t="n">
         <v>108805.404396432</v>
       </c>
       <c r="H141" t="n">
-        <v>230154.9535447305</v>
+        <v>169920.5398765912</v>
       </c>
     </row>
     <row r="142">
@@ -4151,13 +4151,13 @@
         <v>0.07281232085864375</v>
       </c>
       <c r="F142" t="n">
-        <v>1.333790195668073</v>
+        <v>0.723008277245458</v>
       </c>
       <c r="G142" t="n">
         <v>107281.2320858644</v>
       </c>
       <c r="H142" t="n">
-        <v>233379.0195668073</v>
+        <v>172300.8277245458</v>
       </c>
     </row>
     <row r="143">
@@ -4177,13 +4177,13 @@
         <v>0.06724969725163898</v>
       </c>
       <c r="F143" t="n">
-        <v>1.345891097367103</v>
+        <v>0.7319422224768093</v>
       </c>
       <c r="G143" t="n">
         <v>106724.9697251639</v>
       </c>
       <c r="H143" t="n">
-        <v>234589.1097367103</v>
+        <v>173194.2222476809</v>
       </c>
     </row>
     <row r="144">
@@ -4203,13 +4203,13 @@
         <v>0.07181104350473144</v>
       </c>
       <c r="F144" t="n">
-        <v>1.335864932361206</v>
+        <v>0.7245400295435049</v>
       </c>
       <c r="G144" t="n">
         <v>107181.1043504731</v>
       </c>
       <c r="H144" t="n">
-        <v>233586.4932361206</v>
+        <v>172454.0029543505</v>
       </c>
     </row>
     <row r="145">
@@ -4223,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E145" t="n">
         <v>0.07181104350473144</v>
       </c>
       <c r="F145" t="n">
-        <v>1.333529067428845</v>
+        <v>0.70729462924807</v>
       </c>
       <c r="G145" t="n">
         <v>107181.1043504731</v>
       </c>
       <c r="H145" t="n">
-        <v>233352.9067428845</v>
+        <v>170729.462924807</v>
       </c>
     </row>
     <row r="146">
@@ -4255,13 +4255,13 @@
         <v>0.07181104350473144</v>
       </c>
       <c r="F146" t="n">
-        <v>1.333529067428845</v>
+        <v>0.70729462924807</v>
       </c>
       <c r="G146" t="n">
         <v>107181.1043504731</v>
       </c>
       <c r="H146" t="n">
-        <v>233352.9067428845</v>
+        <v>170729.462924807</v>
       </c>
     </row>
     <row r="147">
@@ -4281,13 +4281,13 @@
         <v>0.07181104350473144</v>
       </c>
       <c r="F147" t="n">
-        <v>1.333529067428845</v>
+        <v>0.70729462924807</v>
       </c>
       <c r="G147" t="n">
         <v>107181.1043504731</v>
       </c>
       <c r="H147" t="n">
-        <v>233352.9067428845</v>
+        <v>170729.462924807</v>
       </c>
     </row>
     <row r="148">
@@ -4307,13 +4307,13 @@
         <v>0.08560644874002765</v>
       </c>
       <c r="F148" t="n">
-        <v>1.363564192844477</v>
+        <v>0.7292694180032839</v>
       </c>
       <c r="G148" t="n">
         <v>108560.6448740028</v>
       </c>
       <c r="H148" t="n">
-        <v>236356.4192844476</v>
+        <v>172926.9418003284</v>
       </c>
     </row>
     <row r="149">
@@ -4333,13 +4333,13 @@
         <v>0.08182381704385233</v>
       </c>
       <c r="F149" t="n">
-        <v>1.355328710416959</v>
+        <v>0.7232440399122109</v>
       </c>
       <c r="G149" t="n">
         <v>108182.3817043852</v>
       </c>
       <c r="H149" t="n">
-        <v>235532.8710416959</v>
+        <v>172324.4039912211</v>
       </c>
     </row>
     <row r="150">
@@ -4359,13 +4359,13 @@
         <v>0.08026630285249636</v>
       </c>
       <c r="F150" t="n">
-        <v>1.351937716584149</v>
+        <v>0.7207630656490751</v>
       </c>
       <c r="G150" t="n">
         <v>108026.6302852496</v>
       </c>
       <c r="H150" t="n">
-        <v>235193.7716584149</v>
+        <v>172076.3065649075</v>
       </c>
     </row>
     <row r="151">
@@ -4385,13 +4385,13 @@
         <v>0.09828929522291441</v>
       </c>
       <c r="F151" t="n">
-        <v>1.391177073962755</v>
+        <v>0.7494720048445294</v>
       </c>
       <c r="G151" t="n">
         <v>109828.9295222914</v>
       </c>
       <c r="H151" t="n">
-        <v>239117.7073962755</v>
+        <v>174947.2004844529</v>
       </c>
     </row>
     <row r="152">
@@ -4411,13 +4411,13 @@
         <v>0.09828929522291441</v>
       </c>
       <c r="F152" t="n">
-        <v>1.391177073962755</v>
+        <v>0.7494720048445294</v>
       </c>
       <c r="G152" t="n">
         <v>109828.9295222914</v>
       </c>
       <c r="H152" t="n">
-        <v>239117.7073962755</v>
+        <v>174947.2004844529</v>
       </c>
     </row>
     <row r="153">
@@ -4437,13 +4437,13 @@
         <v>0.09828929522291441</v>
       </c>
       <c r="F153" t="n">
-        <v>1.391177073962755</v>
+        <v>0.7494720048445294</v>
       </c>
       <c r="G153" t="n">
         <v>109828.9295222914</v>
       </c>
       <c r="H153" t="n">
-        <v>239117.7073962755</v>
+        <v>174947.2004844529</v>
       </c>
     </row>
     <row r="154">
@@ -4463,13 +4463,13 @@
         <v>0.1099707792743674</v>
       </c>
       <c r="F154" t="n">
-        <v>1.416609805552865</v>
+        <v>0.7680795150988351</v>
       </c>
       <c r="G154" t="n">
         <v>110997.0779274367</v>
       </c>
       <c r="H154" t="n">
-        <v>241660.9805552865</v>
+        <v>176807.9515098835</v>
       </c>
     </row>
     <row r="155">
@@ -4489,13 +4489,13 @@
         <v>0.1123071781776841</v>
       </c>
       <c r="F155" t="n">
-        <v>1.421696574146115</v>
+        <v>0.7718011797743272</v>
       </c>
       <c r="G155" t="n">
         <v>111230.7178177684</v>
       </c>
       <c r="H155" t="n">
-        <v>242169.6574146115</v>
+        <v>177180.1179774327</v>
       </c>
     </row>
     <row r="156">
@@ -4509,19 +4509,19 @@
         <v>-0.006301340755877849</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.006301340755877849</v>
+        <v>-0.005</v>
       </c>
       <c r="E156" t="n">
         <v>0.1052981516227776</v>
       </c>
       <c r="F156" t="n">
-        <v>1.406436638825079</v>
+        <v>0.7629421738754556</v>
       </c>
       <c r="G156" t="n">
         <v>110529.8151622778</v>
       </c>
       <c r="H156" t="n">
-        <v>240643.6638825079</v>
+        <v>176294.2173875456</v>
       </c>
     </row>
     <row r="157">
@@ -4535,19 +4535,19 @@
         <v>-0.01399089985351354</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01299089985351354</v>
+        <v>0.008990899853513538</v>
       </c>
       <c r="E157" t="n">
         <v>0.08983403587514971</v>
       </c>
       <c r="F157" t="n">
-        <v>1.437698416203881</v>
+        <v>0.7787926104083052</v>
       </c>
       <c r="G157" t="n">
         <v>108983.403587515</v>
       </c>
       <c r="H157" t="n">
-        <v>243769.8416203881</v>
+        <v>177879.2610408305</v>
       </c>
     </row>
     <row r="158">
@@ -4567,13 +4567,13 @@
         <v>0.08438269366664253</v>
       </c>
       <c r="F158" t="n">
-        <v>1.449891766595248</v>
+        <v>0.7876901185775309</v>
       </c>
       <c r="G158" t="n">
         <v>108438.2693666643</v>
       </c>
       <c r="H158" t="n">
-        <v>244989.1766595248</v>
+        <v>178769.0118577531</v>
       </c>
     </row>
     <row r="159">
@@ -4593,13 +4593,13 @@
         <v>0.08438269366664253</v>
       </c>
       <c r="F159" t="n">
-        <v>1.449891766595248</v>
+        <v>0.7876901185775309</v>
       </c>
       <c r="G159" t="n">
         <v>108438.2693666643</v>
       </c>
       <c r="H159" t="n">
-        <v>244989.1766595248</v>
+        <v>178769.0118577531</v>
       </c>
     </row>
     <row r="160">
@@ -4613,19 +4613,19 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E160" t="n">
         <v>0.08438269366664253</v>
       </c>
       <c r="F160" t="n">
-        <v>1.447441874828653</v>
+        <v>0.7698132173917556</v>
       </c>
       <c r="G160" t="n">
         <v>108438.2693666643</v>
       </c>
       <c r="H160" t="n">
-        <v>244744.1874828653</v>
+        <v>176981.3217391756</v>
       </c>
     </row>
     <row r="161">
@@ -4645,13 +4645,13 @@
         <v>0.08416013086964758</v>
       </c>
       <c r="F161" t="n">
-        <v>1.446939552620519</v>
+        <v>0.7694499742469487</v>
       </c>
       <c r="G161" t="n">
         <v>108416.0130869648</v>
       </c>
       <c r="H161" t="n">
-        <v>244693.9552620519</v>
+        <v>176944.9974246949</v>
       </c>
     </row>
     <row r="162">
@@ -4671,13 +4671,13 @@
         <v>0.08271381299926728</v>
       </c>
       <c r="F162" t="n">
-        <v>1.443675226344421</v>
+        <v>0.7670894492233578</v>
       </c>
       <c r="G162" t="n">
         <v>108271.3812999267</v>
       </c>
       <c r="H162" t="n">
-        <v>244367.5226344421</v>
+        <v>176708.9449223358</v>
       </c>
     </row>
     <row r="163">
@@ -4691,19 +4691,19 @@
         <v>-0.01561848416216538</v>
       </c>
       <c r="D163" t="n">
-        <v>0.01461848416216538</v>
+        <v>0.00561848416216538</v>
       </c>
       <c r="E163" t="n">
         <v>0.0658034644587806</v>
       </c>
       <c r="F163" t="n">
-        <v>1.479398053938213</v>
+        <v>0.7770178133069487</v>
       </c>
       <c r="G163" t="n">
         <v>106580.3464458781</v>
       </c>
       <c r="H163" t="n">
-        <v>247939.8053938213</v>
+        <v>177701.7813306949</v>
       </c>
     </row>
     <row r="164">
@@ -4723,13 +4723,13 @@
         <v>0.05501189128522066</v>
       </c>
       <c r="F164" t="n">
-        <v>1.504502687595079</v>
+        <v>0.7950106406925863</v>
       </c>
       <c r="G164" t="n">
         <v>105501.1891285221</v>
       </c>
       <c r="H164" t="n">
-        <v>250450.2687595079</v>
+        <v>179501.0640692586</v>
       </c>
     </row>
     <row r="165">
@@ -4749,13 +4749,13 @@
         <v>0.05067302275160146</v>
       </c>
       <c r="F165" t="n">
-        <v>1.514802768564151</v>
+        <v>0.8023928467613015</v>
       </c>
       <c r="G165" t="n">
         <v>105067.3022751602</v>
       </c>
       <c r="H165" t="n">
-        <v>251480.2768564151</v>
+        <v>180239.2846761302</v>
       </c>
     </row>
     <row r="166">
@@ -4775,13 +4775,13 @@
         <v>0.05067302275160146</v>
       </c>
       <c r="F166" t="n">
-        <v>1.514802768564151</v>
+        <v>0.8023928467613015</v>
       </c>
       <c r="G166" t="n">
         <v>105067.3022751602</v>
       </c>
       <c r="H166" t="n">
-        <v>251480.2768564151</v>
+        <v>180239.2846761302</v>
       </c>
     </row>
     <row r="167">
@@ -4795,19 +4795,19 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E167" t="n">
         <v>0.05067302275160146</v>
       </c>
       <c r="F167" t="n">
-        <v>1.512287965795586</v>
+        <v>0.7843689182936884</v>
       </c>
       <c r="G167" t="n">
         <v>105067.3022751602</v>
       </c>
       <c r="H167" t="n">
-        <v>251228.7965795586</v>
+        <v>178436.8918293688</v>
       </c>
     </row>
     <row r="168">
@@ -4827,13 +4827,13 @@
         <v>0.0490042271617479</v>
       </c>
       <c r="F168" t="n">
-        <v>1.508297671015977</v>
+        <v>0.7815347853931196</v>
       </c>
       <c r="G168" t="n">
         <v>104900.4227161748</v>
       </c>
       <c r="H168" t="n">
-        <v>250829.7671015977</v>
+        <v>178153.478539312</v>
       </c>
     </row>
     <row r="169">
@@ -4847,19 +4847,19 @@
         <v>-0.0004242504509942568</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.0005757495490057432</v>
+        <v>-0.005</v>
       </c>
       <c r="E169" t="n">
         <v>0.04855918664527969</v>
       </c>
       <c r="F169" t="n">
-        <v>1.506853519763117</v>
+        <v>0.772627111466154</v>
       </c>
       <c r="G169" t="n">
         <v>104855.918664528</v>
       </c>
       <c r="H169" t="n">
-        <v>250685.3519763117</v>
+        <v>177262.7111466154</v>
       </c>
     </row>
     <row r="170">
@@ -4873,19 +4873,19 @@
         <v>0.008912391732083913</v>
       </c>
       <c r="D170" t="n">
-        <v>0.007912391732083912</v>
+        <v>0.003912391732083913</v>
       </c>
       <c r="E170" t="n">
         <v>0.05790435687093765</v>
       </c>
       <c r="F170" t="n">
-        <v>1.526688726826436</v>
+        <v>0.7795623231211222</v>
       </c>
       <c r="G170" t="n">
         <v>105790.4356870938</v>
       </c>
       <c r="H170" t="n">
-        <v>252668.8726826436</v>
+        <v>177956.2323121122</v>
       </c>
     </row>
     <row r="171">
@@ -4905,13 +4905,13 @@
         <v>0.05790435687093765</v>
       </c>
       <c r="F171" t="n">
-        <v>1.526688726826436</v>
+        <v>0.7795623231211222</v>
       </c>
       <c r="G171" t="n">
         <v>105790.4356870938</v>
       </c>
       <c r="H171" t="n">
-        <v>252668.8726826436</v>
+        <v>177956.2323121122</v>
       </c>
     </row>
     <row r="172">
@@ -4931,13 +4931,13 @@
         <v>0.06936353335796097</v>
       </c>
       <c r="F172" t="n">
-        <v>1.554057715204663</v>
+        <v>0.7988384690201886</v>
       </c>
       <c r="G172" t="n">
         <v>106936.3533357961</v>
       </c>
       <c r="H172" t="n">
-        <v>255405.7715204663</v>
+        <v>179883.8469020188</v>
       </c>
     </row>
     <row r="173">
@@ -4957,13 +4957,13 @@
         <v>0.06936353335796097</v>
       </c>
       <c r="F173" t="n">
-        <v>1.554057715204663</v>
+        <v>0.7988384690201886</v>
       </c>
       <c r="G173" t="n">
         <v>106936.3533357961</v>
       </c>
       <c r="H173" t="n">
-        <v>255405.7715204663</v>
+        <v>179883.8469020188</v>
       </c>
     </row>
     <row r="174">
@@ -4977,19 +4977,19 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E174" t="n">
         <v>0.06936353335796097</v>
       </c>
       <c r="F174" t="n">
-        <v>1.554057715204663</v>
+        <v>0.7898442766750877</v>
       </c>
       <c r="G174" t="n">
         <v>106936.3533357961</v>
       </c>
       <c r="H174" t="n">
-        <v>255405.7715204663</v>
+        <v>178984.4276675088</v>
       </c>
     </row>
     <row r="175">
@@ -5003,19 +5003,19 @@
         <v>0.01820636720436908</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01820636720436908</v>
+        <v>0.01320636720436908</v>
       </c>
       <c r="E175" t="n">
         <v>0.08883275852123762</v>
       </c>
       <c r="F175" t="n">
-        <v>1.600557827828831</v>
+        <v>0.8134816174314974</v>
       </c>
       <c r="G175" t="n">
         <v>108883.2758521238</v>
       </c>
       <c r="H175" t="n">
-        <v>260055.7827828832</v>
+        <v>181348.1617431497</v>
       </c>
     </row>
     <row r="176">
@@ -5035,13 +5035,13 @@
         <v>0.09027907639161792</v>
       </c>
       <c r="F176" t="n">
-        <v>1.604012199705422</v>
+        <v>0.8158905005683892</v>
       </c>
       <c r="G176" t="n">
         <v>109027.9076391618</v>
       </c>
       <c r="H176" t="n">
-        <v>260401.2199705422</v>
+        <v>181589.0500568389</v>
       </c>
     </row>
     <row r="177">
@@ -5061,13 +5061,13 @@
         <v>0.08204637984084773</v>
       </c>
       <c r="F177" t="n">
-        <v>1.584349305388832</v>
+        <v>0.8021787126561757</v>
       </c>
       <c r="G177" t="n">
         <v>108204.6379840848</v>
       </c>
       <c r="H177" t="n">
-        <v>258434.9305388832</v>
+        <v>180217.8712656176</v>
       </c>
     </row>
     <row r="178">
@@ -5081,19 +5081,19 @@
         <v>-0.01274944454307692</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01174944454307691</v>
+        <v>0.002749444543076915</v>
       </c>
       <c r="E178" t="n">
         <v>0.0682508895280296</v>
       </c>
       <c r="F178" t="n">
-        <v>1.614713974232437</v>
+        <v>0.8071337030833377</v>
       </c>
       <c r="G178" t="n">
         <v>106825.088952803</v>
       </c>
       <c r="H178" t="n">
-        <v>261471.3974232437</v>
+        <v>180713.3703083338</v>
       </c>
     </row>
     <row r="179">
@@ -5113,13 +5113,13 @@
         <v>0.08215757616182362</v>
       </c>
       <c r="F179" t="n">
-        <v>1.5806751466189</v>
+        <v>0.7836081040311795</v>
       </c>
       <c r="G179" t="n">
         <v>108215.7576161824</v>
       </c>
       <c r="H179" t="n">
-        <v>258067.51466189</v>
+        <v>178360.8104031179</v>
       </c>
     </row>
     <row r="180">
@@ -5133,19 +5133,19 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E180" t="n">
         <v>0.08215757616182362</v>
       </c>
       <c r="F180" t="n">
-        <v>1.578094471472281</v>
+        <v>0.7657720229908678</v>
       </c>
       <c r="G180" t="n">
         <v>108215.7576161824</v>
       </c>
       <c r="H180" t="n">
-        <v>257809.4471472281</v>
+        <v>176577.2022990868</v>
       </c>
     </row>
     <row r="181">
@@ -5165,13 +5165,13 @@
         <v>0.08215757616182362</v>
       </c>
       <c r="F181" t="n">
-        <v>1.578094471472281</v>
+        <v>0.7657720229908678</v>
       </c>
       <c r="G181" t="n">
         <v>108215.7576161824</v>
       </c>
       <c r="H181" t="n">
-        <v>257809.4471472281</v>
+        <v>176577.2022990868</v>
       </c>
     </row>
     <row r="182">
@@ -5191,13 +5191,13 @@
         <v>0.08783148116732553</v>
       </c>
       <c r="F182" t="n">
-        <v>1.591611784891852</v>
+        <v>0.7750302150883233</v>
       </c>
       <c r="G182" t="n">
         <v>108783.1481167326</v>
       </c>
       <c r="H182" t="n">
-        <v>259161.1784891852</v>
+        <v>177503.0215088323</v>
       </c>
     </row>
     <row r="183">
@@ -5217,13 +5217,13 @@
         <v>0.09294906425786187</v>
       </c>
       <c r="F183" t="n">
-        <v>1.60380373638177</v>
+        <v>0.7833806487457309</v>
       </c>
       <c r="G183" t="n">
         <v>109294.9064257862</v>
       </c>
       <c r="H183" t="n">
-        <v>260380.373638177</v>
+        <v>178338.0648745731</v>
       </c>
     </row>
     <row r="184">
@@ -5237,19 +5237,19 @@
         <v>-0.006412793266465822</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.006412793266465822</v>
+        <v>-0.005</v>
       </c>
       <c r="E184" t="n">
         <v>0.08594020785799894</v>
       </c>
       <c r="F184" t="n">
-        <v>1.587106081313902</v>
+        <v>0.7744637455020023</v>
       </c>
       <c r="G184" t="n">
         <v>108594.0207857999</v>
       </c>
       <c r="H184" t="n">
-        <v>258710.6081313902</v>
+        <v>177446.3745502002</v>
       </c>
     </row>
     <row r="185">
@@ -5263,19 +5263,19 @@
         <v>0.007683643987845379</v>
       </c>
       <c r="D185" t="n">
-        <v>0.007683643987845379</v>
+        <v>0.002683643987845379</v>
       </c>
       <c r="E185" t="n">
         <v>0.09428418580726672</v>
       </c>
       <c r="F185" t="n">
-        <v>1.606984483401508</v>
+        <v>0.7792257744642686</v>
       </c>
       <c r="G185" t="n">
         <v>109428.4185807267</v>
       </c>
       <c r="H185" t="n">
-        <v>260698.4483401508</v>
+        <v>177922.5774464268</v>
       </c>
     </row>
     <row r="186">
@@ -5295,13 +5295,13 @@
         <v>0.09428418580726672</v>
       </c>
       <c r="F186" t="n">
-        <v>1.606984483401508</v>
+        <v>0.7792257744642686</v>
       </c>
       <c r="G186" t="n">
         <v>109428.4185807267</v>
       </c>
       <c r="H186" t="n">
-        <v>260698.4483401508</v>
+        <v>177922.5774464268</v>
       </c>
     </row>
     <row r="187">
@@ -5321,13 +5321,13 @@
         <v>0.09428418580726672</v>
       </c>
       <c r="F187" t="n">
-        <v>1.606984483401508</v>
+        <v>0.7792257744642686</v>
       </c>
       <c r="G187" t="n">
         <v>109428.4185807267</v>
       </c>
       <c r="H187" t="n">
-        <v>260698.4483401508</v>
+        <v>177922.5774464268</v>
       </c>
     </row>
     <row r="188">
@@ -5341,19 +5341,19 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E188" t="n">
         <v>0.09428418580726672</v>
       </c>
       <c r="F188" t="n">
-        <v>1.606984483401508</v>
+        <v>0.7703296455919473</v>
       </c>
       <c r="G188" t="n">
         <v>109428.4185807267</v>
       </c>
       <c r="H188" t="n">
-        <v>260698.4483401508</v>
+        <v>177032.9645591947</v>
       </c>
     </row>
     <row r="189">
@@ -5367,19 +5367,19 @@
         <v>0.01006499587434528</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01006499587434528</v>
+        <v>0.005064995874345284</v>
       </c>
       <c r="E189" t="n">
         <v>0.1052981516227782</v>
       </c>
       <c r="F189" t="n">
-        <v>1.633223771471426</v>
+        <v>0.7792963579431018</v>
       </c>
       <c r="G189" t="n">
         <v>110529.8151622778</v>
       </c>
       <c r="H189" t="n">
-        <v>263322.3771471427</v>
+        <v>177929.6357943102</v>
       </c>
     </row>
     <row r="190">
@@ -5393,19 +5393,19 @@
         <v>-0.02274782612443882</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02174782612443882</v>
+        <v>0.01274782612443882</v>
       </c>
       <c r="E190" t="n">
         <v>0.08015502145399966</v>
       </c>
       <c r="F190" t="n">
-        <v>1.690490664200126</v>
+        <v>0.8019785185380079</v>
       </c>
       <c r="G190" t="n">
         <v>108015.5021454</v>
       </c>
       <c r="H190" t="n">
-        <v>269049.0664200126</v>
+        <v>180197.8518538008</v>
       </c>
     </row>
     <row r="191">
@@ -5425,13 +5425,13 @@
         <v>0.07703990799376603</v>
       </c>
       <c r="F191" t="n">
-        <v>1.698249905712887</v>
+        <v>0.8071753351306794</v>
       </c>
       <c r="G191" t="n">
         <v>107703.9907993766</v>
       </c>
       <c r="H191" t="n">
-        <v>269824.9905712887</v>
+        <v>180717.5335130679</v>
       </c>
     </row>
     <row r="192">
@@ -5451,13 +5451,13 @@
         <v>0.05534565040319195</v>
       </c>
       <c r="F192" t="n">
-        <v>1.752599357449838</v>
+        <v>0.843576332847362</v>
       </c>
       <c r="G192" t="n">
         <v>105534.5650403192</v>
       </c>
       <c r="H192" t="n">
-        <v>275259.9357449838</v>
+        <v>184357.6332847362</v>
       </c>
     </row>
     <row r="193">
@@ -5477,13 +5477,13 @@
         <v>0.05022798223513369</v>
       </c>
       <c r="F193" t="n">
-        <v>1.765947486667651</v>
+        <v>0.8525163535035269</v>
       </c>
       <c r="G193" t="n">
         <v>105022.7982235134</v>
       </c>
       <c r="H193" t="n">
-        <v>276594.7486667651</v>
+        <v>185251.6353503527</v>
       </c>
     </row>
     <row r="194">
@@ -5503,13 +5503,13 @@
         <v>0.05022798223513369</v>
       </c>
       <c r="F194" t="n">
-        <v>1.765947486667651</v>
+        <v>0.8525163535035269</v>
       </c>
       <c r="G194" t="n">
         <v>105022.7982235134</v>
       </c>
       <c r="H194" t="n">
-        <v>276594.7486667651</v>
+        <v>185251.6353503527</v>
       </c>
     </row>
     <row r="195">
@@ -5523,19 +5523,19 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E195" t="n">
         <v>0.05022798223513369</v>
       </c>
       <c r="F195" t="n">
-        <v>1.763181539180984</v>
+        <v>0.8339911899684918</v>
       </c>
       <c r="G195" t="n">
         <v>105022.7982235134</v>
       </c>
       <c r="H195" t="n">
-        <v>276318.1539180984</v>
+        <v>183399.1189968492</v>
       </c>
     </row>
     <row r="196">
@@ -5555,13 +5555,13 @@
         <v>0.0655809016617861</v>
       </c>
       <c r="F196" t="n">
-        <v>1.803575533865807</v>
+        <v>0.8608016724971057</v>
       </c>
       <c r="G196" t="n">
         <v>106558.0901661786</v>
       </c>
       <c r="H196" t="n">
-        <v>280357.5533865807</v>
+        <v>186080.1672497106</v>
       </c>
     </row>
     <row r="197">
@@ -5581,13 +5581,13 @@
         <v>0.0612420331281669</v>
       </c>
       <c r="F197" t="n">
-        <v>1.792159839715748</v>
+        <v>0.8532247969998887</v>
       </c>
       <c r="G197" t="n">
         <v>106124.2033128167</v>
       </c>
       <c r="H197" t="n">
-        <v>279215.9839715748</v>
+        <v>185322.4796999889</v>
       </c>
     </row>
     <row r="198">
@@ -5607,13 +5607,13 @@
         <v>0.05857196018440125</v>
       </c>
       <c r="F198" t="n">
-        <v>1.785134797161866</v>
+        <v>0.8485621043862166</v>
       </c>
       <c r="G198" t="n">
         <v>105857.1960184401</v>
       </c>
       <c r="H198" t="n">
-        <v>278513.4797161866</v>
+        <v>184856.2104386217</v>
       </c>
     </row>
     <row r="199">
@@ -5627,19 +5627,19 @@
         <v>-0.0006306640819644382</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.0003693359180355618</v>
+        <v>-0.009369335918035562</v>
       </c>
       <c r="E199" t="n">
         <v>0.05790435687093831</v>
       </c>
       <c r="F199" t="n">
-        <v>1.784106146844703</v>
+        <v>0.8312423050648714</v>
       </c>
       <c r="G199" t="n">
         <v>105790.4356870938</v>
       </c>
       <c r="H199" t="n">
-        <v>278410.6146844703</v>
+        <v>183124.2305064871</v>
       </c>
     </row>
     <row r="200">
@@ -5659,13 +5659,13 @@
         <v>0.05745948650951371</v>
       </c>
       <c r="F200" t="n">
-        <v>1.785276920270246</v>
+        <v>0.8320123798082251</v>
       </c>
       <c r="G200" t="n">
         <v>105745.9486509514</v>
       </c>
       <c r="H200" t="n">
-        <v>278527.6920270246</v>
+        <v>183201.2379808225</v>
       </c>
     </row>
     <row r="201">
@@ -5679,19 +5679,19 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
       <c r="E201" t="n">
         <v>0.05745948650951371</v>
       </c>
       <c r="F201" t="n">
-        <v>1.785276920270246</v>
+        <v>0.822852317909184</v>
       </c>
       <c r="G201" t="n">
         <v>105745.9486509514</v>
       </c>
       <c r="H201" t="n">
-        <v>278527.6920270246</v>
+        <v>182285.2317909184</v>
       </c>
     </row>
     <row r="202">
@@ -5705,19 +5705,19 @@
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E202" t="n">
         <v>0.05745948650951371</v>
       </c>
       <c r="F202" t="n">
-        <v>1.782491643349976</v>
+        <v>0.8137380563196381</v>
       </c>
       <c r="G202" t="n">
         <v>105745.9486509514</v>
       </c>
       <c r="H202" t="n">
-        <v>278249.1643349977</v>
+        <v>181373.8056319638</v>
       </c>
     </row>
     <row r="203">
@@ -5737,13 +5737,13 @@
         <v>0.06435706151087928</v>
       </c>
       <c r="F203" t="n">
-        <v>1.800641222644054</v>
+        <v>0.8255686696300262</v>
       </c>
       <c r="G203" t="n">
         <v>106435.7061510879</v>
       </c>
       <c r="H203" t="n">
-        <v>280064.1222644054</v>
+        <v>182556.8669630026</v>
       </c>
     </row>
     <row r="204">
@@ -5763,13 +5763,13 @@
         <v>0.06635961621870368</v>
       </c>
       <c r="F204" t="n">
-        <v>1.805910541999507</v>
+        <v>0.8290034203034842</v>
       </c>
       <c r="G204" t="n">
         <v>106635.9616218704</v>
       </c>
       <c r="H204" t="n">
-        <v>280591.0541999507</v>
+        <v>182900.3420303484</v>
       </c>
     </row>
     <row r="205">
@@ -5789,13 +5789,13 @@
         <v>0.06446834290937686</v>
       </c>
       <c r="F205" t="n">
-        <v>1.8009340372297</v>
+        <v>0.8257595377530988</v>
       </c>
       <c r="G205" t="n">
         <v>106446.8342909377</v>
       </c>
       <c r="H205" t="n">
-        <v>280093.40372297</v>
+        <v>182575.9537753099</v>
       </c>
     </row>
     <row r="206">
@@ -5815,13 +5815,13 @@
         <v>0.07470359416797123</v>
       </c>
       <c r="F206" t="n">
-        <v>1.827866039313895</v>
+        <v>0.8433148814428912</v>
       </c>
       <c r="G206" t="n">
         <v>107470.3594167971</v>
       </c>
       <c r="H206" t="n">
-        <v>282786.6039313895</v>
+        <v>184331.4881442891</v>
       </c>
     </row>
     <row r="207">
@@ -5841,13 +5841,13 @@
         <v>0.08438269366664364</v>
       </c>
       <c r="F207" t="n">
-        <v>1.853334640062947</v>
+        <v>0.8599163222882453</v>
       </c>
       <c r="G207" t="n">
         <v>108438.2693666644</v>
       </c>
       <c r="H207" t="n">
-        <v>285333.4640062947</v>
+        <v>185991.6322288245</v>
       </c>
     </row>
     <row r="208">
@@ -5867,13 +5867,13 @@
         <v>0.08438269366664364</v>
       </c>
       <c r="F208" t="n">
-        <v>1.853334640062947</v>
+        <v>0.8599163222882453</v>
       </c>
       <c r="G208" t="n">
         <v>108438.2693666644</v>
       </c>
       <c r="H208" t="n">
-        <v>285333.4640062947</v>
+        <v>185991.6322288245</v>
       </c>
     </row>
     <row r="209">
@@ -5893,13 +5893,13 @@
         <v>0.08438269366664364</v>
       </c>
       <c r="F209" t="n">
-        <v>1.853334640062947</v>
+        <v>0.8599163222882453</v>
       </c>
       <c r="G209" t="n">
         <v>108438.2693666644</v>
       </c>
       <c r="H209" t="n">
-        <v>285333.4640062947</v>
+        <v>185991.6322288245</v>
       </c>
     </row>
     <row r="210">
@@ -5913,19 +5913,19 @@
         <v>0.001436314135639272</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.002436314135639272</v>
+        <v>-0.01143631413563927</v>
       </c>
       <c r="E210" t="n">
         <v>0.08594020785799961</v>
       </c>
       <c r="F210" t="n">
-        <v>1.846383020545653</v>
+        <v>0.8386457349605541</v>
       </c>
       <c r="G210" t="n">
         <v>108594.0207858</v>
       </c>
       <c r="H210" t="n">
-        <v>284638.3020545653</v>
+        <v>183864.5734960554</v>
       </c>
     </row>
     <row r="211">
@@ -5939,19 +5939,19 @@
         <v>0.007376298228331635</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.007376298228331635</v>
+        <v>-0.005</v>
       </c>
       <c r="E211" t="n">
         <v>0.09395042668929676</v>
       </c>
       <c r="F211" t="n">
-        <v>1.825387250514048</v>
+        <v>0.8294525062857512</v>
       </c>
       <c r="G211" t="n">
         <v>109395.0426689297</v>
       </c>
       <c r="H211" t="n">
-        <v>282538.7250514049</v>
+        <v>182945.2506285751</v>
       </c>
     </row>
     <row r="212">
@@ -5965,19 +5965,19 @@
         <v>-0.007525735561169089</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.00852573556116909</v>
+        <v>-0.01252573556116909</v>
       </c>
       <c r="E212" t="n">
         <v>0.0857176450610051</v>
       </c>
       <c r="F212" t="n">
-        <v>1.801298745958267</v>
+        <v>0.8065372679702978</v>
       </c>
       <c r="G212" t="n">
         <v>108571.7645061005</v>
       </c>
       <c r="H212" t="n">
-        <v>280129.8745958267</v>
+        <v>180653.7267970298</v>
       </c>
     </row>
     <row r="213">
@@ -5991,19 +5991,19 @@
         <v>0.003996392276462313</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.004996392276462313</v>
+        <v>-0.005</v>
       </c>
       <c r="E213" t="n">
         <v>0.09005659867214577</v>
       </c>
       <c r="F213" t="n">
-        <v>1.787302358539897</v>
+        <v>0.7975045816304462</v>
       </c>
       <c r="G213" t="n">
         <v>109005.6598672146</v>
       </c>
       <c r="H213" t="n">
-        <v>278730.2358539897</v>
+        <v>179750.4581630446</v>
       </c>
     </row>
     <row r="214">
@@ -6017,19 +6017,19 @@
         <v>0.005205069108238813</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.005205069108238813</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
         <v>0.09573041860012599</v>
       </c>
       <c r="F214" t="n">
-        <v>1.77279425713814</v>
+        <v>0.7975045816304462</v>
       </c>
       <c r="G214" t="n">
         <v>109573.0418600126</v>
       </c>
       <c r="H214" t="n">
-        <v>277279.425713814</v>
+        <v>179750.4581630446</v>
       </c>
     </row>
     <row r="215">
@@ -6043,19 +6043,19 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E215" t="n">
         <v>0.09573041860012599</v>
       </c>
       <c r="F215" t="n">
-        <v>1.770021462881002</v>
+        <v>0.7885170587222941</v>
       </c>
       <c r="G215" t="n">
         <v>109573.0418600126</v>
       </c>
       <c r="H215" t="n">
-        <v>277002.1462881002</v>
+        <v>178851.7058722294</v>
       </c>
     </row>
     <row r="216">
@@ -6075,13 +6075,13 @@
         <v>0.09573041860012599</v>
       </c>
       <c r="F216" t="n">
-        <v>1.770021462881002</v>
+        <v>0.7885170587222941</v>
       </c>
       <c r="G216" t="n">
         <v>109573.0418600126</v>
       </c>
       <c r="H216" t="n">
-        <v>277002.1462881002</v>
+        <v>178851.7058722294</v>
       </c>
     </row>
     <row r="217">
@@ -6101,13 +6101,13 @@
         <v>0.1079682245665445</v>
       </c>
       <c r="F217" t="n">
-        <v>1.800958803498835</v>
+        <v>0.8084923412924685</v>
       </c>
       <c r="G217" t="n">
         <v>110796.8224566545</v>
       </c>
       <c r="H217" t="n">
-        <v>280095.8803498835</v>
+        <v>180849.2341292468</v>
       </c>
     </row>
     <row r="218">
@@ -6127,13 +6127,13 @@
         <v>0.1048531961838324</v>
       </c>
       <c r="F218" t="n">
-        <v>1.79308396920463</v>
+        <v>0.8034078047072724</v>
       </c>
       <c r="G218" t="n">
         <v>110485.3196183832</v>
       </c>
       <c r="H218" t="n">
-        <v>279308.396920463</v>
+        <v>180340.7804707272</v>
       </c>
     </row>
     <row r="219">
@@ -6153,13 +6153,13 @@
         <v>0.1499106771098775</v>
       </c>
       <c r="F219" t="n">
-        <v>1.906989896346773</v>
+        <v>0.8769533336907978</v>
       </c>
       <c r="G219" t="n">
         <v>114991.0677109877</v>
       </c>
       <c r="H219" t="n">
-        <v>290698.9896346773</v>
+        <v>187695.3333690798</v>
       </c>
     </row>
     <row r="220">
@@ -6179,13 +6179,13 @@
         <v>0.1472406041661118</v>
       </c>
       <c r="F220" t="n">
-        <v>1.90023991547909</v>
+        <v>0.8725950801214037</v>
       </c>
       <c r="G220" t="n">
         <v>114724.0604166112</v>
       </c>
       <c r="H220" t="n">
-        <v>290023.991547909</v>
+        <v>187259.5080121404</v>
       </c>
     </row>
     <row r="221">
@@ -6205,13 +6205,13 @@
         <v>0.1540270679240234</v>
       </c>
       <c r="F221" t="n">
-        <v>1.917396188543496</v>
+        <v>0.8836723542331621</v>
       </c>
       <c r="G221" t="n">
         <v>115402.7067924023</v>
       </c>
       <c r="H221" t="n">
-        <v>291739.6188543496</v>
+        <v>188367.2354233162</v>
       </c>
     </row>
     <row r="222">
@@ -6225,19 +6225,19 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E222" t="n">
         <v>0.1540270679240234</v>
       </c>
       <c r="F222" t="n">
-        <v>1.914478792354953</v>
+        <v>0.8648356306908305</v>
       </c>
       <c r="G222" t="n">
         <v>115402.7067924023</v>
       </c>
       <c r="H222" t="n">
-        <v>291447.8792354953</v>
+        <v>186483.5630690831</v>
       </c>
     </row>
     <row r="223">
@@ -6257,13 +6257,13 @@
         <v>0.1540270679240234</v>
       </c>
       <c r="F223" t="n">
-        <v>1.914478792354953</v>
+        <v>0.8648356306908305</v>
       </c>
       <c r="G223" t="n">
         <v>115402.7067924023</v>
       </c>
       <c r="H223" t="n">
-        <v>291447.8792354953</v>
+        <v>186483.5630690831</v>
       </c>
     </row>
     <row r="224">
@@ -6283,13 +6283,13 @@
         <v>0.1562521003513209</v>
       </c>
       <c r="F224" t="n">
-        <v>1.908859504903293</v>
+        <v>0.8612401173227333</v>
       </c>
       <c r="G224" t="n">
         <v>115625.2100351321</v>
       </c>
       <c r="H224" t="n">
-        <v>290885.9504903294</v>
+        <v>186124.0117322733</v>
       </c>
     </row>
     <row r="225">
@@ -6303,19 +6303,19 @@
         <v>-0.002982803297962744</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.003982803297962744</v>
+        <v>-0.01298280329796274</v>
       </c>
       <c r="E225" t="n">
         <v>0.1528032277731166</v>
       </c>
       <c r="F225" t="n">
-        <v>1.897274089673854</v>
+        <v>0.8370760029892552</v>
       </c>
       <c r="G225" t="n">
         <v>115280.3227773117</v>
       </c>
       <c r="H225" t="n">
-        <v>289727.4089673855</v>
+        <v>183707.6002989255</v>
       </c>
     </row>
     <row r="226">
@@ -6329,19 +6329,19 @@
         <v>-0.02538126659912954</v>
       </c>
       <c r="D226" t="n">
-        <v>0.02438126659912954</v>
+        <v>0.01538126659912954</v>
       </c>
       <c r="E226" t="n">
         <v>0.1235436217126702</v>
       </c>
       <c r="F226" t="n">
-        <v>1.967913301664943</v>
+        <v>0.8653325587540963</v>
       </c>
       <c r="G226" t="n">
         <v>112354.362171267</v>
       </c>
       <c r="H226" t="n">
-        <v>296791.3301664942</v>
+        <v>186533.2558754096</v>
       </c>
     </row>
     <row r="227">
@@ -6361,13 +6361,13 @@
         <v>0.121986107521314</v>
       </c>
       <c r="F227" t="n">
-        <v>1.972027576355063</v>
+        <v>0.8679183790780367</v>
       </c>
       <c r="G227" t="n">
         <v>112198.6107521314</v>
       </c>
       <c r="H227" t="n">
-        <v>297202.7576355063</v>
+        <v>186791.8379078037</v>
       </c>
     </row>
     <row r="228">
@@ -6387,13 +6387,13 @@
         <v>0.1151280935675796</v>
       </c>
       <c r="F228" t="n">
-        <v>1.990193760813936</v>
+        <v>0.8793358201874049</v>
       </c>
       <c r="G228" t="n">
         <v>111512.809356758</v>
       </c>
       <c r="H228" t="n">
-        <v>299019.3760813936</v>
+        <v>187933.5820187405</v>
       </c>
     </row>
     <row r="229">
@@ -6407,19 +6407,19 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E229" t="n">
         <v>0.1151280935675796</v>
       </c>
       <c r="F229" t="n">
-        <v>1.987203567053122</v>
+        <v>0.8699391410864679</v>
       </c>
       <c r="G229" t="n">
         <v>111512.809356758</v>
       </c>
       <c r="H229" t="n">
-        <v>298720.3567053122</v>
+        <v>186993.9141086468</v>
       </c>
     </row>
     <row r="230">
@@ -6433,19 +6433,19 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E230" t="n">
         <v>0.1151280935675796</v>
       </c>
       <c r="F230" t="n">
-        <v>1.987203567053122</v>
+        <v>0.8605894453810354</v>
       </c>
       <c r="G230" t="n">
         <v>111512.809356758</v>
       </c>
       <c r="H230" t="n">
-        <v>298720.3567053122</v>
+        <v>186058.9445381035</v>
       </c>
     </row>
     <row r="231">
@@ -6465,13 +6465,13 @@
         <v>0.1229339561915439</v>
       </c>
       <c r="F231" t="n">
-        <v>2.008113900860276</v>
+        <v>0.8736135147180188</v>
       </c>
       <c r="G231" t="n">
         <v>112293.3956191544</v>
       </c>
       <c r="H231" t="n">
-        <v>300811.3900860276</v>
+        <v>187361.3514718019</v>
       </c>
     </row>
     <row r="232">
@@ -6491,13 +6491,13 @@
         <v>0.1295132561839039</v>
       </c>
       <c r="F232" t="n">
-        <v>2.025738520416773</v>
+        <v>0.8845910662606558</v>
       </c>
       <c r="G232" t="n">
         <v>112951.3256183904</v>
       </c>
       <c r="H232" t="n">
-        <v>302573.8520416773</v>
+        <v>188459.1066260656</v>
       </c>
     </row>
     <row r="233">
@@ -6517,13 +6517,13 @@
         <v>0.1437868821691652</v>
       </c>
       <c r="F233" t="n">
-        <v>2.063974689610165</v>
+        <v>0.9084065884492594</v>
       </c>
       <c r="G233" t="n">
         <v>114378.6882169165</v>
       </c>
       <c r="H233" t="n">
-        <v>306397.4689610166</v>
+        <v>190840.6588449259</v>
       </c>
     </row>
     <row r="234">
@@ -6537,19 +6537,19 @@
         <v>-0.04494492175165898</v>
       </c>
       <c r="D234" t="n">
-        <v>0.04394492175165898</v>
+        <v>0.03494492175165898</v>
       </c>
       <c r="E234" t="n">
         <v>0.09237947024949822</v>
       </c>
       <c r="F234" t="n">
-        <v>2.198620817594148</v>
+        <v>0.9750957073529694</v>
       </c>
       <c r="G234" t="n">
         <v>109237.9470249498</v>
       </c>
       <c r="H234" t="n">
-        <v>319862.0817594148</v>
+        <v>197509.5707352969</v>
       </c>
     </row>
     <row r="235">
@@ -6569,13 +6569,13 @@
         <v>0.07977855342009232</v>
       </c>
       <c r="F235" t="n">
-        <v>2.235517844670375</v>
+        <v>0.9978790142680902</v>
       </c>
       <c r="G235" t="n">
         <v>107977.8553420092</v>
       </c>
       <c r="H235" t="n">
-        <v>323551.7844670375</v>
+        <v>199787.901426809</v>
       </c>
     </row>
     <row r="236">
@@ -6595,13 +6595,13 @@
         <v>0.07977855342009232</v>
       </c>
       <c r="F236" t="n">
-        <v>2.235517844670375</v>
+        <v>0.9978790142680902</v>
       </c>
       <c r="G236" t="n">
         <v>107977.8553420092</v>
       </c>
       <c r="H236" t="n">
-        <v>323551.7844670375</v>
+        <v>199787.901426809</v>
       </c>
     </row>
     <row r="237">
@@ -6621,13 +6621,13 @@
         <v>0.07977855342009232</v>
       </c>
       <c r="F237" t="n">
-        <v>2.235517844670375</v>
+        <v>0.9978790142680902</v>
       </c>
       <c r="G237" t="n">
         <v>107977.8553420092</v>
       </c>
       <c r="H237" t="n">
-        <v>323551.7844670375</v>
+        <v>199787.901426809</v>
       </c>
     </row>
     <row r="238">
@@ -6641,19 +6641,19 @@
         <v>-0.007848829101092858</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.008848829101092859</v>
+        <v>-0.01784882910109286</v>
       </c>
       <c r="E238" t="n">
         <v>0.07130355608727279</v>
       </c>
       <c r="F238" t="n">
-        <v>2.20688730020935</v>
+        <v>0.9622192131777592</v>
       </c>
       <c r="G238" t="n">
         <v>107130.3556087273</v>
       </c>
       <c r="H238" t="n">
-        <v>320688.730020935</v>
+        <v>196221.9213177759</v>
       </c>
     </row>
     <row r="239">
@@ -6673,13 +6673,13 @@
         <v>0.0710805679026687</v>
       </c>
       <c r="F239" t="n">
-        <v>2.206219797545665</v>
+        <v>0.9618107839350336</v>
       </c>
       <c r="G239" t="n">
         <v>107108.0567902669</v>
       </c>
       <c r="H239" t="n">
-        <v>320621.9797545665</v>
+        <v>196181.0783935034</v>
       </c>
     </row>
     <row r="240">
@@ -6693,19 +6693,19 @@
         <v>0.0003123246053486906</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.001312324605348691</v>
+        <v>-0.01031232460534869</v>
       </c>
       <c r="E240" t="n">
         <v>0.07141509271833546</v>
       </c>
       <c r="F240" t="n">
-        <v>2.20201219641519</v>
+        <v>0.941579954316822</v>
       </c>
       <c r="G240" t="n">
         <v>107141.5092718336</v>
       </c>
       <c r="H240" t="n">
-        <v>320201.219641519</v>
+        <v>194157.9954316822</v>
       </c>
     </row>
     <row r="241">
@@ -6719,19 +6719,19 @@
         <v>0.0003122270891464662</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.0006877729108535338</v>
+        <v>-0.009687772910853534</v>
       </c>
       <c r="E241" t="n">
         <v>0.07174961753400244</v>
       </c>
       <c r="F241" t="n">
-        <v>2.199809939166273</v>
+        <v>0.9227703686311353</v>
       </c>
       <c r="G241" t="n">
         <v>107174.9617534002</v>
       </c>
       <c r="H241" t="n">
-        <v>319980.9939166273</v>
+        <v>192277.0368631135</v>
       </c>
     </row>
     <row r="242">
@@ -6751,13 +6751,13 @@
         <v>0.08145126257594826</v>
       </c>
       <c r="F242" t="n">
-        <v>2.228775118834738</v>
+        <v>0.9401755865182679</v>
       </c>
       <c r="G242" t="n">
         <v>108145.1262575948</v>
       </c>
       <c r="H242" t="n">
-        <v>322877.5118834738</v>
+        <v>194017.5586518268</v>
       </c>
     </row>
     <row r="243">
@@ -6777,13 +6777,13 @@
         <v>0.08145126257594826</v>
       </c>
       <c r="F243" t="n">
-        <v>2.228775118834738</v>
+        <v>0.9401755865182679</v>
       </c>
       <c r="G243" t="n">
         <v>108145.1262575948</v>
       </c>
       <c r="H243" t="n">
-        <v>322877.5118834738</v>
+        <v>194017.5586518268</v>
       </c>
     </row>
     <row r="244">
@@ -6803,13 +6803,13 @@
         <v>0.08145126257594826</v>
       </c>
       <c r="F244" t="n">
-        <v>2.228775118834738</v>
+        <v>0.9401755865182679</v>
       </c>
       <c r="G244" t="n">
         <v>108145.1262575948</v>
       </c>
       <c r="H244" t="n">
-        <v>322877.5118834738</v>
+        <v>194017.5586518268</v>
       </c>
     </row>
     <row r="245">
@@ -6823,19 +6823,19 @@
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E245" t="n">
         <v>0.08145126257594826</v>
       </c>
       <c r="F245" t="n">
-        <v>2.225546343715903</v>
+        <v>0.9207738306530853</v>
       </c>
       <c r="G245" t="n">
         <v>108145.1262575948</v>
       </c>
       <c r="H245" t="n">
-        <v>322554.6343715903</v>
+        <v>192077.3830653085</v>
       </c>
     </row>
     <row r="246">
@@ -6849,19 +6849,19 @@
         <v>0.008970871180376205</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.008970871180376205</v>
+        <v>-0.005</v>
       </c>
       <c r="E246" t="n">
         <v>0.09115282254037238</v>
       </c>
       <c r="F246" t="n">
-        <v>2.196610382980094</v>
+        <v>0.9111699614998199</v>
       </c>
       <c r="G246" t="n">
         <v>109115.2822540372</v>
       </c>
       <c r="H246" t="n">
-        <v>319661.0382980094</v>
+        <v>191116.996149982</v>
       </c>
     </row>
     <row r="247">
@@ -6875,19 +6875,19 @@
         <v>0.01624940206519931</v>
       </c>
       <c r="D247" t="n">
-        <v>0.01524940206519931</v>
+        <v>0.01124940206519931</v>
       </c>
       <c r="E247" t="n">
         <v>0.1088834034684079</v>
       </c>
       <c r="F247" t="n">
-        <v>2.245356779955948</v>
+        <v>0.9326694808116631</v>
       </c>
       <c r="G247" t="n">
         <v>110888.3403468408</v>
       </c>
       <c r="H247" t="n">
-        <v>324535.6779955948</v>
+        <v>193266.9480811663</v>
       </c>
     </row>
     <row r="248">
@@ -6907,13 +6907,13 @@
         <v>0.1254987882408589</v>
       </c>
       <c r="F248" t="n">
-        <v>2.293984842612661</v>
+        <v>0.9616283839399973</v>
       </c>
       <c r="G248" t="n">
         <v>112549.8788240859</v>
       </c>
       <c r="H248" t="n">
-        <v>329398.4842612661</v>
+        <v>196162.8383939997</v>
       </c>
     </row>
     <row r="249">
@@ -6933,13 +6933,13 @@
         <v>0.1208152706664805</v>
       </c>
       <c r="F249" t="n">
-        <v>2.280277643581176</v>
+        <v>0.9534654955330337</v>
       </c>
       <c r="G249" t="n">
         <v>112081.5270666481</v>
       </c>
       <c r="H249" t="n">
-        <v>328027.7643581176</v>
+        <v>195346.5495533034</v>
       </c>
     </row>
     <row r="250">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E250" t="n">
         <v>0.1208152706664805</v>
       </c>
       <c r="F250" t="n">
-        <v>2.276997365937595</v>
+        <v>0.9339308405777034</v>
       </c>
       <c r="G250" t="n">
         <v>112081.5270666481</v>
       </c>
       <c r="H250" t="n">
-        <v>327699.7365937594</v>
+        <v>193393.0840577703</v>
       </c>
     </row>
     <row r="251">
@@ -6985,13 +6985,13 @@
         <v>0.1208152706664805</v>
       </c>
       <c r="F251" t="n">
-        <v>2.276997365937595</v>
+        <v>0.9339308405777034</v>
       </c>
       <c r="G251" t="n">
         <v>112081.5270666481</v>
       </c>
       <c r="H251" t="n">
-        <v>327699.7365937594</v>
+        <v>193393.0840577703</v>
       </c>
     </row>
     <row r="252">
@@ -7005,19 +7005,19 @@
         <v>0.01761015426770518</v>
       </c>
       <c r="D252" t="n">
-        <v>0.01661015426770518</v>
+        <v>0.00761015426770518</v>
       </c>
       <c r="E252" t="n">
         <v>0.1405530004885169</v>
       </c>
       <c r="F252" t="n">
-        <v>2.331428797720682</v>
+        <v>0.9486483526175724</v>
       </c>
       <c r="G252" t="n">
         <v>114055.3000488517</v>
       </c>
       <c r="H252" t="n">
-        <v>333142.8797720682</v>
+        <v>194864.8352617573</v>
       </c>
     </row>
     <row r="253">
@@ -7037,13 +7037,13 @@
         <v>0.1406645371195798</v>
       </c>
       <c r="F253" t="n">
-        <v>2.331754583847731</v>
+        <v>0.9488389142769464</v>
       </c>
       <c r="G253" t="n">
         <v>114066.453711958</v>
       </c>
       <c r="H253" t="n">
-        <v>333175.4583847731</v>
+        <v>194883.8914276946</v>
       </c>
     </row>
     <row r="254">
@@ -7057,19 +7057,19 @@
         <v>-0.01837909117793923</v>
       </c>
       <c r="D254" t="n">
-        <v>0.01737909117793923</v>
+        <v>-0.005</v>
       </c>
       <c r="E254" t="n">
         <v>0.1197001595884173</v>
       </c>
       <c r="F254" t="n">
-        <v>2.389657450542938</v>
+        <v>0.9390947197055617</v>
       </c>
       <c r="G254" t="n">
         <v>111970.0159588417</v>
       </c>
       <c r="H254" t="n">
-        <v>338965.7450542938</v>
+        <v>193909.4719705562</v>
       </c>
     </row>
     <row r="255">
@@ -7083,19 +7083,19 @@
         <v>0.02230851291777025</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.02230851291777025</v>
+        <v>-0.02730851291777025</v>
       </c>
       <c r="E255" t="n">
         <v>0.144679005062625</v>
       </c>
       <c r="F255" t="n">
-        <v>2.314039233520684</v>
+        <v>0.8861409265037024</v>
       </c>
       <c r="G255" t="n">
         <v>114467.9005062625</v>
       </c>
       <c r="H255" t="n">
-        <v>331403.9233520684</v>
+        <v>188614.0926503702</v>
       </c>
     </row>
     <row r="256">
@@ -7109,19 +7109,19 @@
         <v>0.008183110817381101</v>
       </c>
       <c r="D256" t="n">
-        <v>0.007183110817381101</v>
+        <v>-0.0018168891826189</v>
       </c>
       <c r="E256" t="n">
         <v>0.1540460402113819</v>
       </c>
       <c r="F256" t="n">
-        <v>2.337844344588213</v>
+        <v>0.882714017457443</v>
       </c>
       <c r="G256" t="n">
         <v>115404.6040211382</v>
       </c>
       <c r="H256" t="n">
-        <v>333784.4344588213</v>
+        <v>188271.4017457443</v>
       </c>
     </row>
     <row r="257">
@@ -7141,13 +7141,13 @@
         <v>0.1540460402113819</v>
       </c>
       <c r="F257" t="n">
-        <v>2.337844344588213</v>
+        <v>0.882714017457443</v>
       </c>
       <c r="G257" t="n">
         <v>115404.6040211382</v>
       </c>
       <c r="H257" t="n">
-        <v>333784.4344588213</v>
+        <v>188271.4017457443</v>
       </c>
     </row>
     <row r="258">
@@ -7167,13 +7167,13 @@
         <v>0.1540460402113819</v>
       </c>
       <c r="F258" t="n">
-        <v>2.337844344588213</v>
+        <v>0.882714017457443</v>
       </c>
       <c r="G258" t="n">
         <v>115404.6040211382</v>
       </c>
       <c r="H258" t="n">
-        <v>333784.4344588213</v>
+        <v>188271.4017457443</v>
       </c>
     </row>
     <row r="259">
@@ -7187,19 +7187,19 @@
         <v>0.001932598142479369</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.002932598142479369</v>
+        <v>-0.01193259814247937</v>
       </c>
       <c r="E259" t="n">
         <v>0.1562763474450302</v>
       </c>
       <c r="F259" t="n">
-        <v>2.328055788463388</v>
+        <v>0.8602483476699105</v>
       </c>
       <c r="G259" t="n">
         <v>115627.634744503</v>
       </c>
       <c r="H259" t="n">
-        <v>332805.5788463388</v>
+        <v>186024.8347669911</v>
       </c>
     </row>
     <row r="260">
@@ -7219,13 +7219,13 @@
         <v>0.1532654539489857</v>
       </c>
       <c r="F260" t="n">
-        <v>2.336721901499514</v>
+        <v>0.8650923537445856</v>
       </c>
       <c r="G260" t="n">
         <v>115326.5453948986</v>
       </c>
       <c r="H260" t="n">
-        <v>333672.1901499514</v>
+        <v>186509.2353744586</v>
       </c>
     </row>
     <row r="261">
@@ -7239,19 +7239,19 @@
         <v>0.008218898560919952</v>
       </c>
       <c r="D261" t="n">
-        <v>0.007218898560919952</v>
+        <v>-0.001781101439080049</v>
       </c>
       <c r="E261" t="n">
         <v>0.1627440257288058</v>
       </c>
       <c r="F261" t="n">
-        <v>2.360809358432439</v>
+        <v>0.8617704350693138</v>
       </c>
       <c r="G261" t="n">
         <v>116274.4025728806</v>
       </c>
       <c r="H261" t="n">
-        <v>336080.935843244</v>
+        <v>186177.0435069314</v>
       </c>
     </row>
     <row r="262">
@@ -7271,13 +7271,13 @@
         <v>0.1552726879205082</v>
       </c>
       <c r="F262" t="n">
-        <v>2.339214113502759</v>
+        <v>0.8498074272755862</v>
       </c>
       <c r="G262" t="n">
         <v>115527.2687920508</v>
       </c>
       <c r="H262" t="n">
-        <v>333921.4113502759</v>
+        <v>184980.7427275586</v>
       </c>
     </row>
     <row r="263">
@@ -7291,19 +7291,19 @@
         <v>-0.012258655036406</v>
       </c>
       <c r="D263" t="n">
-        <v>0.011258655036406</v>
+        <v>0.002258655036405996</v>
       </c>
       <c r="E263" t="n">
         <v>0.1411105985663093</v>
       </c>
       <c r="F263" t="n">
-        <v>2.376809173299385</v>
+        <v>0.8539855041375837</v>
       </c>
       <c r="G263" t="n">
         <v>114111.0598566309</v>
       </c>
       <c r="H263" t="n">
-        <v>337680.9173299385</v>
+        <v>185398.5504137584</v>
       </c>
     </row>
     <row r="264">
@@ -7323,13 +7323,13 @@
         <v>0.1411105985663093</v>
       </c>
       <c r="F264" t="n">
-        <v>2.376809173299385</v>
+        <v>0.8539855041375837</v>
       </c>
       <c r="G264" t="n">
         <v>114111.0598566309</v>
       </c>
       <c r="H264" t="n">
-        <v>337680.9173299385</v>
+        <v>185398.5504137584</v>
       </c>
     </row>
     <row r="265">
@@ -7349,13 +7349,13 @@
         <v>0.1411105985663093</v>
       </c>
       <c r="F265" t="n">
-        <v>2.376809173299385</v>
+        <v>0.8539855041375837</v>
       </c>
       <c r="G265" t="n">
         <v>114111.0598566309</v>
       </c>
       <c r="H265" t="n">
-        <v>337680.9173299385</v>
+        <v>185398.5504137584</v>
       </c>
     </row>
     <row r="266">
@@ -7369,19 +7369,19 @@
         <v>0.004788408628962459</v>
       </c>
       <c r="D266" t="n">
-        <v>0.003788408628962459</v>
+        <v>-0.005211591371037541</v>
       </c>
       <c r="E266" t="n">
         <v>0.1465747024030848</v>
       </c>
       <c r="F266" t="n">
-        <v>2.389601906309872</v>
+        <v>0.8443232892821915</v>
       </c>
       <c r="G266" t="n">
         <v>114657.4702403085</v>
       </c>
       <c r="H266" t="n">
-        <v>338960.1906309872</v>
+        <v>184432.3289282192</v>
       </c>
     </row>
     <row r="267">
@@ -7401,13 +7401,13 @@
         <v>0.1432292840913734</v>
       </c>
       <c r="F267" t="n">
-        <v>2.379711895425266</v>
+        <v>0.838942015047073</v>
       </c>
       <c r="G267" t="n">
         <v>114322.9284091373</v>
       </c>
       <c r="H267" t="n">
-        <v>337971.1895425266</v>
+        <v>183894.2015047073</v>
       </c>
     </row>
     <row r="268">
@@ -7427,13 +7427,13 @@
         <v>0.1455711279560845</v>
       </c>
       <c r="F268" t="n">
-        <v>2.386635053952546</v>
+        <v>0.8427089891225492</v>
       </c>
       <c r="G268" t="n">
         <v>114557.1127956085</v>
       </c>
       <c r="H268" t="n">
-        <v>338663.5053952546</v>
+        <v>184270.8989122549</v>
       </c>
     </row>
     <row r="269">
@@ -7447,19 +7447,19 @@
         <v>0.003114958477246299</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.004114958477246299</v>
+        <v>-0.005</v>
       </c>
       <c r="E269" t="n">
         <v>0.1491395344524</v>
       </c>
       <c r="F269" t="n">
-        <v>2.372699191327944</v>
+        <v>0.8334954441769364</v>
       </c>
       <c r="G269" t="n">
         <v>114913.95344524</v>
       </c>
       <c r="H269" t="n">
-        <v>337269.9191327944</v>
+        <v>183349.5444176937</v>
       </c>
     </row>
     <row r="270">
@@ -7473,19 +7473,19 @@
         <v>0.0010674488800968</v>
       </c>
       <c r="D270" t="n">
-        <v>6.744888009679959e-05</v>
+        <v>-0.0039325511199032</v>
       </c>
       <c r="E270" t="n">
         <v>0.1503661821615263</v>
       </c>
       <c r="F270" t="n">
-        <v>2.372926676111303</v>
+        <v>0.826285129614601</v>
       </c>
       <c r="G270" t="n">
         <v>115036.6182161526</v>
       </c>
       <c r="H270" t="n">
-        <v>337292.6676111303</v>
+        <v>182628.5129614601</v>
       </c>
     </row>
     <row r="271">
@@ -7505,13 +7505,13 @@
         <v>0.1503661821615263</v>
       </c>
       <c r="F271" t="n">
-        <v>2.372926676111303</v>
+        <v>0.826285129614601</v>
       </c>
       <c r="G271" t="n">
         <v>115036.6182161526</v>
       </c>
       <c r="H271" t="n">
-        <v>337292.6676111303</v>
+        <v>182628.5129614601</v>
       </c>
     </row>
     <row r="272">
@@ -7525,19 +7525,19 @@
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E272" t="n">
         <v>0.1503661821615263</v>
       </c>
       <c r="F272" t="n">
-        <v>2.369553749435192</v>
+        <v>0.817153703966528</v>
       </c>
       <c r="G272" t="n">
         <v>115036.6182161526</v>
       </c>
       <c r="H272" t="n">
-        <v>336955.3749435192</v>
+        <v>181715.3703966528</v>
       </c>
     </row>
     <row r="273">
@@ -7551,19 +7551,19 @@
         <v>-0.0007755120997934295</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0007755120997934295</v>
+        <v>-0.004224487900206571</v>
       </c>
       <c r="E273" t="n">
         <v>0.1494740592680668</v>
       </c>
       <c r="F273" t="n">
-        <v>2.372166879138783</v>
+        <v>0.8094771601313058</v>
       </c>
       <c r="G273" t="n">
         <v>114947.4059268067</v>
       </c>
       <c r="H273" t="n">
-        <v>337216.6879138783</v>
+        <v>180947.7160131306</v>
       </c>
     </row>
     <row r="274">
@@ -7577,19 +7577,19 @@
         <v>-0.0001940655035463923</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0001940655035463923</v>
+        <v>-0.005</v>
       </c>
       <c r="E274" t="n">
         <v>0.1492509860059414</v>
       </c>
       <c r="F274" t="n">
-        <v>2.372821300402226</v>
+        <v>0.8004297743306492</v>
       </c>
       <c r="G274" t="n">
         <v>114925.0986005941</v>
       </c>
       <c r="H274" t="n">
-        <v>337282.1300402226</v>
+        <v>180042.9774330649</v>
       </c>
     </row>
     <row r="275">
@@ -7603,19 +7603,19 @@
         <v>-0.01067337958644643</v>
       </c>
       <c r="D275" t="n">
-        <v>0.01067337958644643</v>
+        <v>0.00567337958644643</v>
       </c>
       <c r="E275" t="n">
         <v>0.1369845939922021</v>
       </c>
       <c r="F275" t="n">
-        <v>2.408820702418671</v>
+        <v>0.8106442958591673</v>
       </c>
       <c r="G275" t="n">
         <v>113698.4593992202</v>
       </c>
       <c r="H275" t="n">
-        <v>340882.0702418671</v>
+        <v>181064.4295859167</v>
       </c>
     </row>
     <row r="276">
@@ -7635,13 +7635,13 @@
         <v>0.1340852371272205</v>
       </c>
       <c r="F276" t="n">
-        <v>2.41751333357416</v>
+        <v>0.815261512307814</v>
       </c>
       <c r="G276" t="n">
         <v>113408.5237127221</v>
       </c>
       <c r="H276" t="n">
-        <v>341751.333357416</v>
+        <v>181526.1512307814</v>
       </c>
     </row>
     <row r="277">
@@ -7661,13 +7661,13 @@
         <v>0.1382112417013281</v>
       </c>
       <c r="F277" t="n">
-        <v>2.40507980989818</v>
+        <v>0.8086572668262695</v>
       </c>
       <c r="G277" t="n">
         <v>113821.1241701328</v>
       </c>
       <c r="H277" t="n">
-        <v>340507.980989818</v>
+        <v>180865.726682627</v>
       </c>
     </row>
     <row r="278">
@@ -7681,19 +7681,19 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E278" t="n">
         <v>0.1382112417013281</v>
       </c>
       <c r="F278" t="n">
-        <v>2.401674730088282</v>
+        <v>0.7905706941580068</v>
       </c>
       <c r="G278" t="n">
         <v>113821.1241701328</v>
       </c>
       <c r="H278" t="n">
-        <v>340167.4730088282</v>
+        <v>179057.0694158007</v>
       </c>
     </row>
     <row r="279">
@@ -7713,13 +7713,13 @@
         <v>0.1382112417013281</v>
       </c>
       <c r="F279" t="n">
-        <v>2.401674730088282</v>
+        <v>0.7905706941580068</v>
       </c>
       <c r="G279" t="n">
         <v>113821.1241701328</v>
       </c>
       <c r="H279" t="n">
-        <v>340167.4730088282</v>
+        <v>179057.0694158007</v>
       </c>
     </row>
     <row r="280">
@@ -7739,13 +7739,13 @@
         <v>0.1452365180628963</v>
       </c>
       <c r="F280" t="n">
-        <v>2.422670573562216</v>
+        <v>0.8016224686533828</v>
       </c>
       <c r="G280" t="n">
         <v>114523.6518062896</v>
       </c>
       <c r="H280" t="n">
-        <v>342267.0573562215</v>
+        <v>180162.2468653383</v>
       </c>
     </row>
     <row r="281">
@@ -7765,13 +7765,13 @@
         <v>0.1512582199774637</v>
       </c>
       <c r="F281" t="n">
-        <v>2.440667119795839</v>
+        <v>0.8110954755805178</v>
       </c>
       <c r="G281" t="n">
         <v>115125.8219977464</v>
       </c>
       <c r="H281" t="n">
-        <v>344066.711979584</v>
+        <v>181109.5475580518</v>
       </c>
     </row>
     <row r="282">
@@ -7791,13 +7791,13 @@
         <v>0.1474668252965443</v>
       </c>
       <c r="F282" t="n">
-        <v>2.429336102313886</v>
+        <v>0.805131064092635</v>
       </c>
       <c r="G282" t="n">
         <v>114746.6825296544</v>
       </c>
       <c r="H282" t="n">
-        <v>342933.6102313885</v>
+        <v>180513.1064092635</v>
       </c>
     </row>
     <row r="283">
@@ -7811,19 +7811,19 @@
         <v>-0.01098158276050476</v>
       </c>
       <c r="D283" t="n">
-        <v>0.009981582760504759</v>
+        <v>0.0009815827605047598</v>
       </c>
       <c r="E283" t="n">
         <v>0.1348658233896167</v>
       </c>
       <c r="F283" t="n">
-        <v>2.463566304432718</v>
+        <v>0.8069029496256002</v>
       </c>
       <c r="G283" t="n">
         <v>113486.5823389617</v>
       </c>
       <c r="H283" t="n">
-        <v>346356.6304432718</v>
+        <v>180690.29496256</v>
       </c>
     </row>
     <row r="284">
@@ -7843,13 +7843,13 @@
         <v>0.1356464096520131</v>
       </c>
       <c r="F284" t="n">
-        <v>2.461183985553766</v>
+        <v>0.8056601210983048</v>
       </c>
       <c r="G284" t="n">
         <v>113564.6409652013</v>
       </c>
       <c r="H284" t="n">
-        <v>346118.3985553766</v>
+        <v>180566.0121098305</v>
       </c>
     </row>
     <row r="285">
@@ -7869,13 +7869,13 @@
         <v>0.1356464096520131</v>
       </c>
       <c r="F285" t="n">
-        <v>2.461183985553766</v>
+        <v>0.8056601210983048</v>
       </c>
       <c r="G285" t="n">
         <v>113564.6409652013</v>
       </c>
       <c r="H285" t="n">
-        <v>346118.3985553766</v>
+        <v>180566.0121098305</v>
       </c>
     </row>
     <row r="286">
@@ -7889,19 +7889,19 @@
         <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E286" t="n">
         <v>0.1356464096520131</v>
       </c>
       <c r="F286" t="n">
-        <v>2.457722801568212</v>
+        <v>0.7876035198873217</v>
       </c>
       <c r="G286" t="n">
         <v>113564.6409652013</v>
       </c>
       <c r="H286" t="n">
-        <v>345772.2801568212</v>
+        <v>178760.3519887322</v>
       </c>
     </row>
     <row r="287">
@@ -7921,13 +7921,13 @@
         <v>0.1387688397791209</v>
       </c>
       <c r="F287" t="n">
-        <v>2.467229720055378</v>
+        <v>0.7925184890523544</v>
       </c>
       <c r="G287" t="n">
         <v>113876.8839779121</v>
       </c>
       <c r="H287" t="n">
-        <v>346722.9720055378</v>
+        <v>179251.8489052354</v>
       </c>
     </row>
     <row r="288">
@@ -7947,13 +7947,13 @@
         <v>0.1955288189045001</v>
       </c>
       <c r="F288" t="n">
-        <v>2.640047837006496</v>
+        <v>0.8818634978604654</v>
       </c>
       <c r="G288" t="n">
         <v>119552.88189045</v>
       </c>
       <c r="H288" t="n">
-        <v>364004.7837006496</v>
+        <v>188186.3497860465</v>
       </c>
     </row>
     <row r="289">
@@ -7973,13 +7973,13 @@
         <v>0.2158241468043292</v>
       </c>
       <c r="F289" t="n">
-        <v>2.701841382469336</v>
+        <v>0.9138100608774866</v>
       </c>
       <c r="G289" t="n">
         <v>121582.4146804329</v>
       </c>
       <c r="H289" t="n">
-        <v>370184.1382469336</v>
+        <v>191381.0060877487</v>
       </c>
     </row>
     <row r="290">
@@ -7999,13 +7999,13 @@
         <v>0.1872768948338059</v>
       </c>
       <c r="F290" t="n">
-        <v>2.614923057168737</v>
+        <v>0.8688742712937776</v>
       </c>
       <c r="G290" t="n">
         <v>118727.6894833806</v>
       </c>
       <c r="H290" t="n">
-        <v>361492.3057168737</v>
+        <v>186887.4271293778</v>
       </c>
     </row>
     <row r="291">
@@ -8019,19 +8019,19 @@
         <v>0.01183433945509771</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.01283433945509771</v>
+        <v>-0.02183433945509771</v>
       </c>
       <c r="E291" t="n">
         <v>0.2013275326344635</v>
       </c>
       <c r="F291" t="n">
-        <v>2.568527907548974</v>
+        <v>0.8280686360554508</v>
       </c>
       <c r="G291" t="n">
         <v>120132.7532634463</v>
       </c>
       <c r="H291" t="n">
-        <v>356852.7907548974</v>
+        <v>182806.8636055451</v>
       </c>
     </row>
     <row r="292">
@@ -8051,13 +8051,13 @@
         <v>0.2013275326344635</v>
       </c>
       <c r="F292" t="n">
-        <v>2.568527907548974</v>
+        <v>0.8280686360554508</v>
       </c>
       <c r="G292" t="n">
         <v>120132.7532634463</v>
       </c>
       <c r="H292" t="n">
-        <v>356852.7907548974</v>
+        <v>182806.8636055451</v>
       </c>
     </row>
     <row r="293">
@@ -8077,13 +8077,13 @@
         <v>0.2013275326344635</v>
       </c>
       <c r="F293" t="n">
-        <v>2.568527907548974</v>
+        <v>0.8280686360554508</v>
       </c>
       <c r="G293" t="n">
         <v>120132.7532634463</v>
       </c>
       <c r="H293" t="n">
-        <v>356852.7907548974</v>
+        <v>182806.8636055451</v>
       </c>
     </row>
     <row r="294">
@@ -8097,19 +8097,19 @@
         <v>-0.006312079123610648</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.007312079123610648</v>
+        <v>-0.01631207912361065</v>
       </c>
       <c r="E294" t="n">
         <v>0.1937446581951028</v>
       </c>
       <c r="F294" t="n">
-        <v>2.542434549134163</v>
+        <v>0.7982490358207233</v>
       </c>
       <c r="G294" t="n">
         <v>119374.4658195103</v>
       </c>
       <c r="H294" t="n">
-        <v>354243.4549134163</v>
+        <v>179824.9035820723</v>
       </c>
     </row>
     <row r="295">
@@ -8123,19 +8123,19 @@
         <v>-0.007753403151734228</v>
       </c>
       <c r="D295" t="n">
-        <v>0.006753403151734228</v>
+        <v>-0.002246596848265772</v>
       </c>
       <c r="E295" t="n">
         <v>0.1844890745998871</v>
       </c>
       <c r="F295" t="n">
-        <v>2.566358037783098</v>
+        <v>0.7942090952044514</v>
       </c>
       <c r="G295" t="n">
         <v>118448.9074599887</v>
       </c>
       <c r="H295" t="n">
-        <v>356635.8037783098</v>
+        <v>179420.9095204451</v>
       </c>
     </row>
     <row r="296">
@@ -8155,13 +8155,13 @@
         <v>0.1947482326421035</v>
       </c>
       <c r="F296" t="n">
-        <v>2.53546891307158</v>
+        <v>0.7786689985811857</v>
       </c>
       <c r="G296" t="n">
         <v>119474.8232642104</v>
       </c>
       <c r="H296" t="n">
-        <v>353546.891307158</v>
+        <v>177866.8998581186</v>
       </c>
     </row>
     <row r="297">
@@ -8175,19 +8175,19 @@
         <v>-0.002613391645435503</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.003613391645435503</v>
+        <v>-0.0126133916454355</v>
       </c>
       <c r="E297" t="n">
         <v>0.1916258875925179</v>
       </c>
       <c r="F297" t="n">
-        <v>2.52269387923839</v>
+        <v>0.7562339498944866</v>
       </c>
       <c r="G297" t="n">
         <v>119162.5887592518</v>
       </c>
       <c r="H297" t="n">
-        <v>352269.387923839</v>
+        <v>175623.3949894487</v>
       </c>
     </row>
     <row r="298">
@@ -8207,13 +8207,13 @@
         <v>0.1839314765220947</v>
       </c>
       <c r="F298" t="n">
-        <v>2.499947600339663</v>
+        <v>0.7448938253746826</v>
       </c>
       <c r="G298" t="n">
         <v>118393.1476522095</v>
       </c>
       <c r="H298" t="n">
-        <v>349994.7600339663</v>
+        <v>174489.3825374682</v>
       </c>
     </row>
     <row r="299">
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E299" t="n">
         <v>0.1839314765220947</v>
       </c>
       <c r="F299" t="n">
-        <v>2.496447652739323</v>
+        <v>0.7361693562478091</v>
       </c>
       <c r="G299" t="n">
         <v>118393.1476522095</v>
       </c>
       <c r="H299" t="n">
-        <v>349644.7652739323</v>
+        <v>173616.9356247809</v>
       </c>
     </row>
     <row r="300">
@@ -8253,19 +8253,19 @@
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
       <c r="E300" t="n">
         <v>0.1839314765220947</v>
       </c>
       <c r="F300" t="n">
-        <v>2.496447652739323</v>
+        <v>0.72748850946657</v>
       </c>
       <c r="G300" t="n">
         <v>118393.1476522095</v>
       </c>
       <c r="H300" t="n">
-        <v>349644.7652739323</v>
+        <v>172748.850946657</v>
       </c>
     </row>
     <row r="301">
@@ -8285,13 +8285,13 @@
         <v>0.1649743329624545</v>
       </c>
       <c r="F301" t="n">
-        <v>2.55243286929633</v>
+        <v>0.7551491032771067</v>
       </c>
       <c r="G301" t="n">
         <v>116497.4332962455</v>
       </c>
       <c r="H301" t="n">
-        <v>355243.2869296329</v>
+        <v>175514.9103277107</v>
       </c>
     </row>
     <row r="302">
@@ -8311,13 +8311,13 @@
         <v>0.1504776337150673</v>
       </c>
       <c r="F302" t="n">
-        <v>2.59663860795133</v>
+        <v>0.7769898150976218</v>
       </c>
       <c r="G302" t="n">
         <v>115047.7633715067</v>
       </c>
       <c r="H302" t="n">
-        <v>359663.860795133</v>
+        <v>177698.9815097622</v>
       </c>
     </row>
     <row r="303">
@@ -8337,13 +8337,13 @@
         <v>0.1425602344600401</v>
       </c>
       <c r="F303" t="n">
-        <v>2.621390087685224</v>
+        <v>0.7892187689042365</v>
       </c>
       <c r="G303" t="n">
         <v>114256.023446004</v>
       </c>
       <c r="H303" t="n">
-        <v>362139.0087685224</v>
+        <v>178921.8768904236</v>
       </c>
     </row>
     <row r="304">
@@ -8363,13 +8363,13 @@
         <v>0.139995487488247</v>
       </c>
       <c r="F304" t="n">
-        <v>2.629519155178512</v>
+        <v>0.7932350940668145</v>
       </c>
       <c r="G304" t="n">
         <v>113999.5487488247</v>
       </c>
       <c r="H304" t="n">
-        <v>362951.9155178512</v>
+        <v>179323.5094066814</v>
       </c>
     </row>
     <row r="305">
@@ -8383,19 +8383,19 @@
         <v>-0.0102709871591391</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.0112709871591391</v>
+        <v>-0.005</v>
       </c>
       <c r="E305" t="n">
         <v>0.1282866084747787</v>
       </c>
       <c r="F305" t="n">
-        <v>2.588610891386646</v>
+        <v>0.7842689185964804</v>
       </c>
       <c r="G305" t="n">
         <v>112828.6608474779</v>
       </c>
       <c r="H305" t="n">
-        <v>358861.0891386646</v>
+        <v>178426.8918596481</v>
       </c>
     </row>
     <row r="306">
@@ -8415,13 +8415,13 @@
         <v>0.1282866084747787</v>
       </c>
       <c r="F306" t="n">
-        <v>2.588610891386646</v>
+        <v>0.7842689185964804</v>
       </c>
       <c r="G306" t="n">
         <v>112828.6608474779</v>
       </c>
       <c r="H306" t="n">
-        <v>358861.0891386646</v>
+        <v>178426.8918596481</v>
       </c>
     </row>
     <row r="307">
@@ -8435,19 +8435,19 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="E307" t="n">
         <v>0.1282866084747787</v>
       </c>
       <c r="F307" t="n">
-        <v>2.585022280495259</v>
+        <v>0.7842689185964804</v>
       </c>
       <c r="G307" t="n">
         <v>112828.6608474779</v>
       </c>
       <c r="H307" t="n">
-        <v>358502.2280495259</v>
+        <v>178426.8918596481</v>
       </c>
     </row>
     <row r="308">
@@ -8461,19 +8461,19 @@
         <v>0.004052145003738072</v>
       </c>
       <c r="D308" t="n">
-        <v>0.003052145003738072</v>
+        <v>-0.0009478549962619277</v>
       </c>
       <c r="E308" t="n">
         <v>0.1328585894180943</v>
       </c>
       <c r="F308" t="n">
-        <v>2.595964288336963</v>
+        <v>0.7825776903873138</v>
       </c>
       <c r="G308" t="n">
         <v>113285.8589418094</v>
       </c>
       <c r="H308" t="n">
-        <v>359596.4288336963</v>
+        <v>178257.7690387314</v>
       </c>
     </row>
     <row r="309">
@@ -8493,13 +8493,13 @@
         <v>0.1404414638574547</v>
       </c>
       <c r="F309" t="n">
-        <v>2.620034146606644</v>
+        <v>0.7945095086485459</v>
       </c>
       <c r="G309" t="n">
         <v>114044.1463857455</v>
       </c>
       <c r="H309" t="n">
-        <v>362003.4146606644</v>
+        <v>179450.9508648546</v>
       </c>
     </row>
     <row r="310">
@@ -8519,13 +8519,13 @@
         <v>0.1315204901554272</v>
       </c>
       <c r="F310" t="n">
-        <v>2.59171684103176</v>
+        <v>0.7804721620226669</v>
       </c>
       <c r="G310" t="n">
         <v>113152.0490155427</v>
       </c>
       <c r="H310" t="n">
-        <v>359171.684103176</v>
+        <v>178047.2162022667</v>
       </c>
     </row>
     <row r="311">
@@ -8539,19 +8539,19 @@
         <v>0.002069568167402558</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.003069568167402558</v>
+        <v>-0.01206956816740256</v>
       </c>
       <c r="E311" t="n">
         <v>0.1338622489426167</v>
       </c>
       <c r="F311" t="n">
-        <v>2.580691821350205</v>
+        <v>0.7589826318929718</v>
       </c>
       <c r="G311" t="n">
         <v>113386.2248942617</v>
       </c>
       <c r="H311" t="n">
-        <v>358069.1821350205</v>
+        <v>175898.2631892972</v>
       </c>
     </row>
     <row r="312">
@@ -8565,19 +8565,19 @@
         <v>0.008949606903851715</v>
       </c>
       <c r="D312" t="n">
-        <v>0.007949606903851714</v>
+        <v>-0.005</v>
       </c>
       <c r="E312" t="n">
         <v>0.1440098703537704</v>
       </c>
       <c r="F312" t="n">
-        <v>2.609156913773776</v>
+        <v>0.7501877187335069</v>
       </c>
       <c r="G312" t="n">
         <v>114400.987035377</v>
       </c>
       <c r="H312" t="n">
-        <v>360915.6913773776</v>
+        <v>175018.7718733507</v>
       </c>
     </row>
     <row r="313">
@@ -8591,19 +8591,19 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="E313" t="n">
         <v>0.1440098703537704</v>
       </c>
       <c r="F313" t="n">
-        <v>2.609156913773776</v>
+        <v>0.7414367801398394</v>
       </c>
       <c r="G313" t="n">
         <v>114400.987035377</v>
       </c>
       <c r="H313" t="n">
-        <v>360915.6913773776</v>
+        <v>174143.6780139839</v>
       </c>
     </row>
     <row r="314">
@@ -8623,13 +8623,13 @@
         <v>0.1440098703537704</v>
       </c>
       <c r="F314" t="n">
-        <v>2.609156913773776</v>
+        <v>0.7414367801398394</v>
       </c>
       <c r="G314" t="n">
         <v>114400.987035377</v>
       </c>
       <c r="H314" t="n">
-        <v>360915.6913773776</v>
+        <v>174143.6780139839</v>
       </c>
     </row>
     <row r="315">
@@ -8643,19 +8643,19 @@
         <v>-0.001657063797774083</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0006570637977740832</v>
+        <v>-0.008342936202225917</v>
       </c>
       <c r="E315" t="n">
         <v>0.1421141730133111</v>
       </c>
       <c r="F315" t="n">
-        <v>2.611528360122302</v>
+        <v>0.726908084182923</v>
       </c>
       <c r="G315" t="n">
         <v>114211.4173013311</v>
       </c>
       <c r="H315" t="n">
-        <v>361152.8360122303</v>
+        <v>172690.8084182923</v>
       </c>
     </row>
     <row r="316">
@@ -8675,13 +8675,13 @@
         <v>0.1534885272111124</v>
       </c>
       <c r="F316" t="n">
-        <v>2.575561025389861</v>
+        <v>0.7097097473785392</v>
       </c>
       <c r="G316" t="n">
         <v>115348.8527211112</v>
       </c>
       <c r="H316" t="n">
-        <v>357556.1025389861</v>
+        <v>170970.9747378539</v>
       </c>
     </row>
     <row r="317">
@@ -8695,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="E317" t="n">
         <v>0.1534885272111124</v>
       </c>
       <c r="F317" t="n">
-        <v>2.571985464364471</v>
+        <v>0.6926126499047538</v>
       </c>
       <c r="G317" t="n">
         <v>115348.8527211112</v>
       </c>
       <c r="H317" t="n">
-        <v>357198.5464364471</v>
+        <v>169261.2649904754</v>
       </c>
     </row>
     <row r="318">
@@ -8721,19 +8721,19 @@
         <v>-0.008700710601671768</v>
       </c>
       <c r="D318" t="n">
-        <v>0.007700710601671768</v>
+        <v>-0.005</v>
       </c>
       <c r="E318" t="n">
         <v>0.1434523573534998</v>
       </c>
       <c r="F318" t="n">
-        <v>2.59949229069892</v>
+        <v>0.6841495866552301</v>
       </c>
       <c r="G318" t="n">
         <v>114345.23573535</v>
       </c>
       <c r="H318" t="n">
-        <v>359949.229069892</v>
+        <v>168414.958665523</v>
       </c>
     </row>
     <row r="319">
@@ -8747,19 +8747,19 @@
         <v>-0.0005851136927839118</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0005851136927839118</v>
+        <v>-0.004414886307216088</v>
       </c>
       <c r="E319" t="n">
         <v>0.1427833077221663</v>
       </c>
       <c r="F319" t="n">
-        <v>2.601598402925278</v>
+        <v>0.6767142577058023</v>
       </c>
       <c r="G319" t="n">
         <v>114278.3307722166</v>
       </c>
       <c r="H319" t="n">
-        <v>360159.8402925278</v>
+        <v>167671.4257705802</v>
       </c>
     </row>
     <row r="320">
@@ -8779,13 +8779,13 @@
         <v>0.1427833077221663</v>
       </c>
       <c r="F320" t="n">
-        <v>2.601598402925278</v>
+        <v>0.6767142577058023</v>
       </c>
       <c r="G320" t="n">
         <v>114278.3307722166</v>
       </c>
       <c r="H320" t="n">
-        <v>360159.8402925278</v>
+        <v>167671.4257705802</v>
       </c>
     </row>
     <row r="321">
@@ -8799,19 +8799,19 @@
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E321" t="n">
         <v>0.1427833077221663</v>
       </c>
       <c r="F321" t="n">
-        <v>2.597996804522353</v>
+        <v>0.6683306864172733</v>
       </c>
       <c r="G321" t="n">
         <v>114278.3307722166</v>
       </c>
       <c r="H321" t="n">
-        <v>359799.6804522353</v>
+        <v>166833.0686417273</v>
       </c>
     </row>
     <row r="322">
@@ -8825,19 +8825,19 @@
         <v>0.004586198047551227</v>
       </c>
       <c r="D322" t="n">
-        <v>0.004586198047551227</v>
+        <v>-0.0004138019524487736</v>
       </c>
       <c r="E322" t="n">
         <v>0.1480243382968158</v>
       </c>
       <c r="F322" t="n">
-        <v>2.614497930442349</v>
+        <v>0.6676403279219036</v>
       </c>
       <c r="G322" t="n">
         <v>114802.4338296816</v>
       </c>
       <c r="H322" t="n">
-        <v>361449.7930442349</v>
+        <v>166764.0327921904</v>
       </c>
     </row>
     <row r="323">
@@ -8857,13 +8857,13 @@
         <v>0.1480243382968158</v>
       </c>
       <c r="F323" t="n">
-        <v>2.614497930442349</v>
+        <v>0.6676403279219036</v>
       </c>
       <c r="G323" t="n">
         <v>114802.4338296816</v>
       </c>
       <c r="H323" t="n">
-        <v>361449.7930442349</v>
+        <v>166764.0327921904</v>
       </c>
     </row>
   </sheetData>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$361,450</t>
+          <t>$166,764</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>261.45%</t>
+          <t>66.76%</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>173.36%</t>
+          <t>49.22%</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19.32%</t>
+          <t>19.73%</t>
         </is>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.9734</t>
+          <t>2.4950</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-5.55%</t>
+          <t>-16.53%</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45.34%</t>
+          <t>37.89%</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.252%</t>
+          <t>1.223%</t>
         </is>
       </c>
     </row>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.528%</t>
+          <t>-0.741%</t>
         </is>
       </c>
     </row>
@@ -9222,7 +9222,7 @@
         <v>90.13235473632812</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>90.47760772705078</v>
@@ -9404,7 +9404,7 @@
         <v>91.25393676757812</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>91.49290466308594</v>
@@ -9600,7 +9600,7 @@
         <v>98.79722595214844</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>98.23503112792969</v>
@@ -9824,7 +9824,7 @@
         <v>103.2239379882812</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>103.7141342163086</v>
@@ -9880,7 +9880,7 @@
         <v>94.07273101806641</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>88.919921875</v>
@@ -10216,7 +10216,7 @@
         <v>85.68579864501953</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>84.87371063232422</v>
@@ -10342,7 +10342,7 @@
         <v>84.74668884277344</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>83.00635528564453</v>
@@ -10370,7 +10370,7 @@
         <v>84.74668884277344</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>83.65591430664062</v>
@@ -10860,7 +10860,7 @@
         <v>98.28226470947266</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>97.64840698242188</v>
@@ -10874,7 +10874,7 @@
         <v>98.85952758789062</v>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>97.74248504638672</v>
@@ -10958,7 +10958,7 @@
         <v>96.49462890625</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>93.22089385986328</v>
@@ -11000,7 +11000,7 @@
         <v>96.6043701171875</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>94.51556396484375</v>
@@ -11294,7 +11294,7 @@
         <v>99.11849212646484</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>99.97396087646484</v>
@@ -11476,7 +11476,7 @@
         <v>94.03038024902344</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>93.96334075927734</v>
@@ -11546,7 +11546,7 @@
         <v>95.89602661132812</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
         <v>96.84079742431641</v>
@@ -11686,7 +11686,7 @@
         <v>97.38255310058594</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>99.05455017089844</v>
@@ -11742,7 +11742,7 @@
         <v>98.13080596923828</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>99.9644775390625</v>
@@ -11924,7 +11924,7 @@
         <v>94.82852172851562</v>
       </c>
       <c r="C201" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>96.18637847900391</v>
@@ -12064,7 +12064,7 @@
         <v>98.1008758544922</v>
       </c>
       <c r="C211" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>100.0204010009766</v>
@@ -12092,7 +12092,7 @@
         <v>97.75169372558594</v>
       </c>
       <c r="C213" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>100.1795043945312</v>
@@ -12106,7 +12106,7 @@
         <v>98.260498046875</v>
       </c>
       <c r="C214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>100.1169738769531</v>
@@ -12316,7 +12316,7 @@
         <v>100</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>100.3119964599609</v>
@@ -12554,7 +12554,7 @@
         <v>97.84999847412109</v>
       </c>
       <c r="C246" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
         <v>100.0857238769531</v>
@@ -12666,7 +12666,7 @@
         <v>100.4100036621094</v>
       </c>
       <c r="C254" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
         <v>105.9897537231445</v>
@@ -12876,7 +12876,7 @@
         <v>103.0500030517578</v>
       </c>
       <c r="C269" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>106.9320755004883</v>
@@ -12918,7 +12918,7 @@
         <v>103.1600036621094</v>
       </c>
       <c r="C272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>107.5686721801758</v>
@@ -12946,7 +12946,7 @@
         <v>103.0599975585938</v>
       </c>
       <c r="C274" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
         <v>107.1115646362305</v>
@@ -13296,7 +13296,7 @@
         <v>106.1699981689453</v>
       </c>
       <c r="C299" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
         <v>111.0594100952148</v>
@@ -13380,7 +13380,7 @@
         <v>101.1800003051758</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
         <v>105.2504577636719</v>
@@ -13394,7 +13394,7 @@
         <v>101.1800003051758</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
         <v>105.2561111450195</v>
@@ -13408,7 +13408,7 @@
         <v>101.1800003051758</v>
       </c>
       <c r="C307" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
         <v>105.3838119506836</v>
@@ -13478,7 +13478,7 @@
         <v>102.5899963378906</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
         <v>106.9675674438477</v>
@@ -13562,7 +13562,7 @@
         <v>102.5400009155273</v>
       </c>
       <c r="C318" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
         <v>108.2404632568359</v>
@@ -13604,7 +13604,7 @@
         <v>102.4800033569336</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
         <v>106.7408294677734</v>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-25 11:27:05</t>
+          <t>2025-11-25 14:15:23</t>
         </is>
       </c>
     </row>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+246.65%</t>
+          <t>+51.96%</t>
         </is>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>+8.4176</t>
+          <t>+1.9392</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16.38%</t>
+          <t>5.40%</t>
         </is>
       </c>
     </row>
